--- a/Översikt SMEDJEBACKEN.xlsx
+++ b/Översikt SMEDJEBACKEN.xlsx
@@ -572,7 +572,7 @@
         <v>43888</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>43440</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>44441</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         <v>44305</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44859</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>43893</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>43964</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44091</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>44321</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>44420</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>44909</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>45018</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>45064</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>45127</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43707</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>43766</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43780</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>44426</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44432</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44776</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>44776</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>44826</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>45015</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>45064</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43322</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43322</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43339</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43385</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43417</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43417</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43417</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43417</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43419</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43438</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43438</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43446</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>43451</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>43454</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>43483</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>43489</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43497</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43506</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43506</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43506</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43509</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43515</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43536</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43552</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>43560</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>43565</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>43584</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>43593</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         <v>43595</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>43607</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>43616</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43616</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43616</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43616</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43629</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43630</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43643</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43652</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43678</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43684</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>43684</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>43689</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>43693</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43693</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43697</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43698</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43700</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43700</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43703</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43703</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43703</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43704</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43706</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43726</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43726</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43731</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43731</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43732</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>43739</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>43745</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>43745</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>43745</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43754</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>43754</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>43760</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>43760</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>43766</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7239,7 +7239,7 @@
         <v>43767</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
         <v>43773</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>43773</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>43775</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>43777</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>43779</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>43780</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>43795</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>43798</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>43811</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>43822</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>43822</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>43840</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>43840</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>43842</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>43843</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>43843</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>43845</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>43846</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>43850</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>43851</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>43853</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43854</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43864</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43866</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43872</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43882</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43885</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43886</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43887</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>43887</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>43887</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>43887</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>43888</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43896</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>43902</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>43915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>43915</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>43919</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         <v>43920</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>43921</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43921</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43927</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43927</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43929</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43941</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>43942</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9988,7 +9988,7 @@
         <v>43976</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10045,7 +10045,7 @@
         <v>43977</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>43979</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>43984</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43984</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>43986</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>43997</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>43997</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>44000</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>44007</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>44008</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>44015</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>44026</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10759,7 +10759,7 @@
         <v>44034</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>44047</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         <v>44050</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>44050</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>44062</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>44062</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44062</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44064</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44066</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44075</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44075</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44076</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44076</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>44102</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>44103</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>44105</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>44105</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>44105</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44106</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>44106</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>44108</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>44108</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44115</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44115</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44115</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44115</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44116</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44124</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44124</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44124</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>44124</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44124</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>44125</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>44126</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>44126</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44126</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>44126</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>44126</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44136</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>44141</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44147</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         <v>44148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>44148</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44159</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44161</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44164</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>44164</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>44164</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44165</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44166</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44179</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>44187</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44202</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44212</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>44230</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>44230</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>44234</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         <v>44236</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>44260</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>44260</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>44261</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14391,7 +14391,7 @@
         <v>44261</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>44284</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>44291</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         <v>44298</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>44298</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>44302</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>44302</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>44302</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
         <v>44305</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14924,7 +14924,7 @@
         <v>44305</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         <v>44306</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15043,7 +15043,7 @@
         <v>44307</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>44316</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>44316</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15219,7 +15219,7 @@
         <v>44319</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15281,7 +15281,7 @@
         <v>44321</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44321</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>44321</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44333</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>44342</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44342</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15648,7 +15648,7 @@
         <v>44354</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44354</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44355</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44355</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44357</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>44390</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16010,7 +16010,7 @@
         <v>44390</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>44403</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>44410</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44410</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44410</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44410</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44414</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44414</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44414</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44414</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44414</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44417</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44417</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44420</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>44420</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44424</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44426</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>44427</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>44431</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44431</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>44432</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>44434</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44434</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>44440</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17393,7 +17393,7 @@
         <v>44442</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44442</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17517,7 +17517,7 @@
         <v>44442</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44442</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44449</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44449</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>44453</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17822,7 +17822,7 @@
         <v>44455</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>44461</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17941,7 +17941,7 @@
         <v>44462</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18003,7 +18003,7 @@
         <v>44466</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44469</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44473</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44474</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44475</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>44475</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>44475</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>44476</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>44477</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>44477</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18608,7 +18608,7 @@
         <v>44482</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18670,7 +18670,7 @@
         <v>44482</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18732,7 +18732,7 @@
         <v>44482</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>44494</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18856,7 +18856,7 @@
         <v>44496</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
         <v>44496</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18970,7 +18970,7 @@
         <v>44496</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>44496</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19084,7 +19084,7 @@
         <v>44496</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>44496</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>44496</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>44503</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19312,7 +19312,7 @@
         <v>44508</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19374,7 +19374,7 @@
         <v>44508</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44515</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44525</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44530</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>44531</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44531</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44537</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>44539</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44563</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44563</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44563</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44566</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20093,7 +20093,7 @@
         <v>44566</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         <v>44568</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20212,7 +20212,7 @@
         <v>44571</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20269,7 +20269,7 @@
         <v>44574</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20326,7 +20326,7 @@
         <v>44581</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>44604</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>44608</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>44617</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>44623</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>44630</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>44630</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>44662</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>44666</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>44684</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20906,7 +20906,7 @@
         <v>44686</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20963,7 +20963,7 @@
         <v>44700</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21020,7 +21020,7 @@
         <v>44706</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21077,7 +21077,7 @@
         <v>44713</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21134,7 +21134,7 @@
         <v>44714</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21191,7 +21191,7 @@
         <v>44718</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21248,7 +21248,7 @@
         <v>44726</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21305,7 +21305,7 @@
         <v>44727</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>44733</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         <v>44735</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21486,7 +21486,7 @@
         <v>44774</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>44776</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>44776</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>44776</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>44776</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21791,7 +21791,7 @@
         <v>44776</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21853,7 +21853,7 @@
         <v>44776</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44776</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21977,7 +21977,7 @@
         <v>44778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>44778</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44781</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>44782</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>44787</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>44787</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>44787</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>44787</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>44790</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44799</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44811</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>44811</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44813</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22738,7 +22738,7 @@
         <v>44813</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44813</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22862,7 +22862,7 @@
         <v>44813</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44820</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>44824</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23048,7 +23048,7 @@
         <v>44826</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23105,7 +23105,7 @@
         <v>44827</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23162,7 +23162,7 @@
         <v>44831</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23224,7 +23224,7 @@
         <v>44831</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23286,7 +23286,7 @@
         <v>44832</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23343,7 +23343,7 @@
         <v>44840</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>44840</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23467,7 +23467,7 @@
         <v>44840</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23529,7 +23529,7 @@
         <v>44840</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>44842</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>44845</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>44845</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23757,7 +23757,7 @@
         <v>44855</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>44855</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>44859</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>44861</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>44861</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44872</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>44873</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24181,7 +24181,7 @@
         <v>44883</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>44886</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>44886</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>44887</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>44888</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
         <v>44888</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24533,7 +24533,7 @@
         <v>44889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24590,7 +24590,7 @@
         <v>44890</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24652,7 +24652,7 @@
         <v>44890</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>44893</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>44895</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>44896</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>44896</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>44897</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25009,7 +25009,7 @@
         <v>44902</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25071,7 +25071,7 @@
         <v>44903</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25133,7 +25133,7 @@
         <v>44909</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25190,7 +25190,7 @@
         <v>44914</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>44914</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25304,7 +25304,7 @@
         <v>44914</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25361,7 +25361,7 @@
         <v>44928</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>44937</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>44950</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>44966</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>44971</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>44977</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>44981</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>44995</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>45006</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>45006</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>45012</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25993,7 +25993,7 @@
         <v>45018</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>45019</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>45021</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45030</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45034</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26283,7 +26283,7 @@
         <v>45035</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26340,7 +26340,7 @@
         <v>45037</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         <v>45040</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26454,7 +26454,7 @@
         <v>45040</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>45041</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>45041</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>45058</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26682,7 +26682,7 @@
         <v>45062</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26739,7 +26739,7 @@
         <v>45063</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26801,7 +26801,7 @@
         <v>45063</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26863,7 +26863,7 @@
         <v>45063</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26925,7 +26925,7 @@
         <v>45063</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26987,7 +26987,7 @@
         <v>45064</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>45064</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>45064</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45070</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         <v>45072</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27297,7 +27297,7 @@
         <v>45077</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27354,7 +27354,7 @@
         <v>45077</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27411,7 +27411,7 @@
         <v>45079</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27468,7 +27468,7 @@
         <v>45082</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27525,7 +27525,7 @@
         <v>45089</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27582,7 +27582,7 @@
         <v>45092</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>45102</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>45103</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45103</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45106</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>45107</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27939,7 +27939,7 @@
         <v>45107</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27996,7 +27996,7 @@
         <v>45109</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         <v>45109</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28110,7 +28110,7 @@
         <v>45110</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28172,7 +28172,7 @@
         <v>45110</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28234,7 +28234,7 @@
         <v>45111</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28291,7 +28291,7 @@
         <v>45113</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28348,7 +28348,7 @@
         <v>45114</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28410,7 +28410,7 @@
         <v>45114</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28467,7 +28467,7 @@
         <v>45124</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28524,7 +28524,7 @@
         <v>45125</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28581,7 +28581,7 @@
         <v>45131</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28638,7 +28638,7 @@
         <v>45140</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28695,7 +28695,7 @@
         <v>45147</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28752,7 +28752,7 @@
         <v>45149</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28809,7 +28809,7 @@
         <v>45153</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         <v>45154</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>

--- a/Översikt SMEDJEBACKEN.xlsx
+++ b/Översikt SMEDJEBACKEN.xlsx
@@ -572,7 +572,7 @@
         <v>43888</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>43440</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>44441</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         <v>44305</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44859</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>43893</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>43964</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44091</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>44321</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>44420</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>44909</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>45018</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>45064</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>45127</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43707</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>43766</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43780</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>44426</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44432</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44776</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>44776</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>44826</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>45015</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>45064</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43322</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43322</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43339</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43385</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43417</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43417</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43417</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43417</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43419</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43438</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43438</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43446</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>43451</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>43454</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>43483</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>43489</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43497</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43506</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43506</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43506</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43509</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43515</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43536</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43552</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>43560</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>43565</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>43584</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>43593</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         <v>43595</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>43607</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>43616</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43616</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43616</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43616</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43629</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43630</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43643</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43652</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43678</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43684</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>43684</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>43689</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>43693</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43693</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43697</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43698</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43700</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43700</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43703</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43703</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43703</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43704</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43706</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43726</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43726</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43731</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43731</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43732</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>43739</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>43745</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>43745</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>43745</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43754</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>43754</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>43760</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>43760</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>43766</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7239,7 +7239,7 @@
         <v>43767</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
         <v>43773</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>43773</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>43775</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>43777</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>43779</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>43780</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>43795</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>43798</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>43811</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>43822</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>43822</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>43840</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>43840</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>43842</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>43843</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>43843</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>43845</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>43846</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>43850</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>43851</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>43853</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43854</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43864</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43866</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43872</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43882</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43885</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43886</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43887</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>43887</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>43887</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>43887</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>43888</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43896</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>43902</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>43915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>43915</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>43919</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         <v>43920</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>43921</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43921</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43927</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43927</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43929</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43941</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>43942</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9988,7 +9988,7 @@
         <v>43976</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10045,7 +10045,7 @@
         <v>43977</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>43979</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>43984</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43984</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>43986</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>43997</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>43997</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>44000</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>44007</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>44008</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>44015</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>44026</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10759,7 +10759,7 @@
         <v>44034</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>44047</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         <v>44050</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>44050</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>44062</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>44062</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44062</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44064</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44066</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44075</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44075</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44076</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44076</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>44102</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>44103</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>44105</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>44105</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>44105</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44106</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>44106</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>44108</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>44108</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44115</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44115</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44115</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44115</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44116</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44124</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44124</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44124</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>44124</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44124</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>44125</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>44126</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>44126</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44126</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>44126</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>44126</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44136</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>44141</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44147</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         <v>44148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>44148</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44159</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44161</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44164</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>44164</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>44164</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44165</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44166</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44179</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>44187</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44202</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44212</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>44230</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>44230</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>44234</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         <v>44236</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>44260</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>44260</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>44261</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14391,7 +14391,7 @@
         <v>44261</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>44284</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>44291</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         <v>44298</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>44298</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>44302</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>44302</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>44302</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
         <v>44305</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14924,7 +14924,7 @@
         <v>44305</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         <v>44306</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15043,7 +15043,7 @@
         <v>44307</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>44316</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>44316</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15219,7 +15219,7 @@
         <v>44319</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15281,7 +15281,7 @@
         <v>44321</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44321</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>44321</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44333</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>44342</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44342</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15648,7 +15648,7 @@
         <v>44354</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44354</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44355</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44355</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44357</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>44390</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16010,7 +16010,7 @@
         <v>44390</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>44403</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>44410</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44410</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44410</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44410</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44414</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44414</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44414</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44414</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44414</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44417</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44417</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44420</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>44420</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44424</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44426</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>44427</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>44431</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44431</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>44432</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>44434</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44434</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>44440</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17393,7 +17393,7 @@
         <v>44442</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44442</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17517,7 +17517,7 @@
         <v>44442</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44442</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44449</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44449</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>44453</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17822,7 +17822,7 @@
         <v>44455</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>44461</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17941,7 +17941,7 @@
         <v>44462</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18003,7 +18003,7 @@
         <v>44466</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44469</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44473</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44474</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44475</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>44475</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>44475</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>44476</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>44477</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>44477</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18608,7 +18608,7 @@
         <v>44482</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18670,7 +18670,7 @@
         <v>44482</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18732,7 +18732,7 @@
         <v>44482</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>44494</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18856,7 +18856,7 @@
         <v>44496</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
         <v>44496</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18970,7 +18970,7 @@
         <v>44496</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>44496</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19084,7 +19084,7 @@
         <v>44496</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>44496</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>44496</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>44503</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19312,7 +19312,7 @@
         <v>44508</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19374,7 +19374,7 @@
         <v>44508</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44515</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44525</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44530</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>44531</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44531</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44537</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>44539</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44563</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44563</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44563</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44566</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20093,7 +20093,7 @@
         <v>44566</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         <v>44568</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20212,7 +20212,7 @@
         <v>44571</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20269,7 +20269,7 @@
         <v>44574</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20326,7 +20326,7 @@
         <v>44581</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>44604</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>44608</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>44617</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>44623</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>44630</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>44630</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>44662</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>44666</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>44684</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20906,7 +20906,7 @@
         <v>44686</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20963,7 +20963,7 @@
         <v>44700</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21020,7 +21020,7 @@
         <v>44706</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21077,7 +21077,7 @@
         <v>44713</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21134,7 +21134,7 @@
         <v>44714</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21191,7 +21191,7 @@
         <v>44718</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21248,7 +21248,7 @@
         <v>44726</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21305,7 +21305,7 @@
         <v>44727</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>44733</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         <v>44735</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21486,7 +21486,7 @@
         <v>44774</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>44776</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>44776</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>44776</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>44776</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21791,7 +21791,7 @@
         <v>44776</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21853,7 +21853,7 @@
         <v>44776</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44776</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21977,7 +21977,7 @@
         <v>44778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>44778</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44781</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>44782</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>44787</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>44787</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>44787</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>44787</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>44790</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44799</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44811</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>44811</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44813</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22738,7 +22738,7 @@
         <v>44813</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44813</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22862,7 +22862,7 @@
         <v>44813</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44820</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>44824</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23048,7 +23048,7 @@
         <v>44826</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23105,7 +23105,7 @@
         <v>44827</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23162,7 +23162,7 @@
         <v>44831</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23224,7 +23224,7 @@
         <v>44831</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23286,7 +23286,7 @@
         <v>44832</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23343,7 +23343,7 @@
         <v>44840</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>44840</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23467,7 +23467,7 @@
         <v>44840</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23529,7 +23529,7 @@
         <v>44840</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>44842</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>44845</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>44845</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23757,7 +23757,7 @@
         <v>44855</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>44855</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>44859</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>44861</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>44861</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44872</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>44873</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24181,7 +24181,7 @@
         <v>44883</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>44886</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>44886</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>44887</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>44888</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
         <v>44888</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24533,7 +24533,7 @@
         <v>44889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24590,7 +24590,7 @@
         <v>44890</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24652,7 +24652,7 @@
         <v>44890</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>44893</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>44895</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>44896</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>44896</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>44897</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25009,7 +25009,7 @@
         <v>44902</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25071,7 +25071,7 @@
         <v>44903</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25133,7 +25133,7 @@
         <v>44909</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25190,7 +25190,7 @@
         <v>44914</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>44914</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25304,7 +25304,7 @@
         <v>44914</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25361,7 +25361,7 @@
         <v>44928</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>44937</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>44950</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>44966</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>44971</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>44977</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>44981</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>44995</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>45006</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>45006</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>45012</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25993,7 +25993,7 @@
         <v>45018</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>45019</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>45021</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45030</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45034</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26283,7 +26283,7 @@
         <v>45035</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26340,7 +26340,7 @@
         <v>45037</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         <v>45040</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26454,7 +26454,7 @@
         <v>45040</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>45041</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>45041</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>45058</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26682,7 +26682,7 @@
         <v>45062</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26739,7 +26739,7 @@
         <v>45063</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26801,7 +26801,7 @@
         <v>45063</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26863,7 +26863,7 @@
         <v>45063</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26925,7 +26925,7 @@
         <v>45063</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26987,7 +26987,7 @@
         <v>45064</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>45064</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>45064</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45070</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         <v>45072</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27297,7 +27297,7 @@
         <v>45077</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27354,7 +27354,7 @@
         <v>45077</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27411,7 +27411,7 @@
         <v>45079</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27468,7 +27468,7 @@
         <v>45082</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27525,7 +27525,7 @@
         <v>45089</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27582,7 +27582,7 @@
         <v>45092</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>45102</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>45103</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45103</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45106</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>45107</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27939,7 +27939,7 @@
         <v>45107</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27996,7 +27996,7 @@
         <v>45109</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         <v>45109</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28110,7 +28110,7 @@
         <v>45110</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28172,7 +28172,7 @@
         <v>45110</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28234,7 +28234,7 @@
         <v>45111</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28291,7 +28291,7 @@
         <v>45113</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28348,7 +28348,7 @@
         <v>45114</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28410,7 +28410,7 @@
         <v>45114</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28467,7 +28467,7 @@
         <v>45124</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28524,7 +28524,7 @@
         <v>45125</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28581,7 +28581,7 @@
         <v>45131</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28638,7 +28638,7 @@
         <v>45140</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28695,7 +28695,7 @@
         <v>45147</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28752,7 +28752,7 @@
         <v>45149</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28809,7 +28809,7 @@
         <v>45153</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         <v>45154</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>

--- a/Översikt SMEDJEBACKEN.xlsx
+++ b/Översikt SMEDJEBACKEN.xlsx
@@ -572,7 +572,7 @@
         <v>43888</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>43440</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>44441</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         <v>44305</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44859</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>43893</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>43964</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44091</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>44321</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>44420</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>44909</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>45018</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>45064</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>45127</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43707</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>43766</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43780</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>44426</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44432</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44776</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>44776</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>44826</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>45015</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>45064</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43322</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43322</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43339</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43385</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43417</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43417</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43417</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43417</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43419</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43438</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43438</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43446</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>43451</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>43454</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>43483</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>43489</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43497</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43506</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43506</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43506</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43509</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43515</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43536</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43552</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>43560</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>43565</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>43584</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>43593</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         <v>43595</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>43607</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>43616</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43616</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43616</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43616</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43629</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43630</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43643</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43652</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43678</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43684</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>43684</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>43689</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>43693</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43693</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43697</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43698</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43700</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43700</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43703</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43703</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43703</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43704</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43706</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43726</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43726</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43731</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43731</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43732</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>43739</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>43745</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>43745</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>43745</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43754</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>43754</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>43760</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>43760</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>43766</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7239,7 +7239,7 @@
         <v>43767</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
         <v>43773</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>43773</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>43775</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>43777</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>43779</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>43780</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>43795</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>43798</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>43811</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>43822</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>43822</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>43840</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>43840</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>43842</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>43843</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>43843</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>43845</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>43846</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>43850</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>43851</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>43853</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43854</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43864</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43866</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43872</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43882</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43885</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43886</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43887</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>43887</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>43887</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>43887</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>43888</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43896</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>43902</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>43915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>43915</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>43919</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         <v>43920</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>43921</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43921</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43927</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43927</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43929</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43941</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>43942</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9988,7 +9988,7 @@
         <v>43976</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10045,7 +10045,7 @@
         <v>43977</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>43979</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>43984</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43984</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>43986</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>43997</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>43997</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>44000</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>44007</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>44008</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>44015</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>44026</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10759,7 +10759,7 @@
         <v>44034</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>44047</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         <v>44050</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>44050</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>44062</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>44062</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44062</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44064</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44066</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44075</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44075</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44076</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44076</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>44102</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>44103</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>44105</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>44105</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>44105</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44106</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>44106</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>44108</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>44108</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44115</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44115</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44115</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44115</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44116</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44124</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44124</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44124</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>44124</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44124</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>44125</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>44126</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>44126</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44126</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>44126</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>44126</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44136</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>44141</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44147</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         <v>44148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>44148</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44159</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44161</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44164</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>44164</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>44164</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44165</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44166</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44179</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>44187</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44202</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44212</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>44230</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>44230</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>44234</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         <v>44236</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>44260</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>44260</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>44261</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14391,7 +14391,7 @@
         <v>44261</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>44284</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>44291</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         <v>44298</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>44298</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>44302</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>44302</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>44302</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
         <v>44305</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14924,7 +14924,7 @@
         <v>44305</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         <v>44306</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15043,7 +15043,7 @@
         <v>44307</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>44316</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>44316</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15219,7 +15219,7 @@
         <v>44319</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15281,7 +15281,7 @@
         <v>44321</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44321</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>44321</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44333</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>44342</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44342</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15648,7 +15648,7 @@
         <v>44354</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44354</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44355</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44355</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44357</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>44390</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16010,7 +16010,7 @@
         <v>44390</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>44403</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>44410</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44410</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44410</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44410</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44414</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44414</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44414</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44414</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44414</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44417</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44417</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44420</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>44420</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44424</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44426</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>44427</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>44431</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44431</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>44432</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>44434</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44434</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>44440</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17393,7 +17393,7 @@
         <v>44442</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44442</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17517,7 +17517,7 @@
         <v>44442</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44442</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44449</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44449</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>44453</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17822,7 +17822,7 @@
         <v>44455</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>44461</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17941,7 +17941,7 @@
         <v>44462</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18003,7 +18003,7 @@
         <v>44466</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44469</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44473</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44474</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44475</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>44475</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>44475</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>44476</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>44477</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>44477</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18608,7 +18608,7 @@
         <v>44482</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18670,7 +18670,7 @@
         <v>44482</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18732,7 +18732,7 @@
         <v>44482</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>44494</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18856,7 +18856,7 @@
         <v>44496</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
         <v>44496</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18970,7 +18970,7 @@
         <v>44496</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>44496</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19084,7 +19084,7 @@
         <v>44496</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>44496</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>44496</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>44503</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19312,7 +19312,7 @@
         <v>44508</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19374,7 +19374,7 @@
         <v>44508</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44515</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44525</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44530</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>44531</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44531</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44537</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>44539</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44563</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44563</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44563</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44566</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20093,7 +20093,7 @@
         <v>44566</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         <v>44568</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20212,7 +20212,7 @@
         <v>44571</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20269,7 +20269,7 @@
         <v>44574</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20326,7 +20326,7 @@
         <v>44581</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>44604</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>44608</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>44617</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>44623</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>44630</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>44630</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>44662</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>44666</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>44684</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20906,7 +20906,7 @@
         <v>44686</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20963,7 +20963,7 @@
         <v>44700</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21020,7 +21020,7 @@
         <v>44706</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21077,7 +21077,7 @@
         <v>44713</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21134,7 +21134,7 @@
         <v>44714</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21191,7 +21191,7 @@
         <v>44718</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21248,7 +21248,7 @@
         <v>44726</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21305,7 +21305,7 @@
         <v>44727</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>44733</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         <v>44735</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21486,7 +21486,7 @@
         <v>44774</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>44776</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>44776</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>44776</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>44776</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21791,7 +21791,7 @@
         <v>44776</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21853,7 +21853,7 @@
         <v>44776</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44776</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21977,7 +21977,7 @@
         <v>44778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>44778</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44781</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>44782</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>44787</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>44787</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>44787</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>44787</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>44790</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44799</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44811</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>44811</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44813</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22738,7 +22738,7 @@
         <v>44813</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44813</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22862,7 +22862,7 @@
         <v>44813</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44820</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>44824</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23048,7 +23048,7 @@
         <v>44826</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23105,7 +23105,7 @@
         <v>44827</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23162,7 +23162,7 @@
         <v>44831</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23224,7 +23224,7 @@
         <v>44831</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23286,7 +23286,7 @@
         <v>44832</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23343,7 +23343,7 @@
         <v>44840</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>44840</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23467,7 +23467,7 @@
         <v>44840</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23529,7 +23529,7 @@
         <v>44840</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>44842</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>44845</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>44845</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23757,7 +23757,7 @@
         <v>44855</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>44855</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>44859</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>44861</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>44861</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44872</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>44873</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24181,7 +24181,7 @@
         <v>44883</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>44886</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>44886</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>44887</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>44888</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
         <v>44888</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24533,7 +24533,7 @@
         <v>44889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24590,7 +24590,7 @@
         <v>44890</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24652,7 +24652,7 @@
         <v>44890</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>44893</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>44895</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>44896</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>44896</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>44897</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25009,7 +25009,7 @@
         <v>44902</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25071,7 +25071,7 @@
         <v>44903</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25133,7 +25133,7 @@
         <v>44909</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25190,7 +25190,7 @@
         <v>44914</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>44914</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25304,7 +25304,7 @@
         <v>44914</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25361,7 +25361,7 @@
         <v>44928</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>44937</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>44950</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>44966</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>44971</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>44977</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>44981</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>44995</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>45006</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>45006</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>45012</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25993,7 +25993,7 @@
         <v>45018</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>45019</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>45021</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45030</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45034</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26283,7 +26283,7 @@
         <v>45035</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26340,7 +26340,7 @@
         <v>45037</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         <v>45040</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26454,7 +26454,7 @@
         <v>45040</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>45041</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>45041</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>45058</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26682,7 +26682,7 @@
         <v>45062</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26739,7 +26739,7 @@
         <v>45063</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26801,7 +26801,7 @@
         <v>45063</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26863,7 +26863,7 @@
         <v>45063</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26925,7 +26925,7 @@
         <v>45063</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26987,7 +26987,7 @@
         <v>45064</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>45064</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>45064</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45070</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         <v>45072</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27297,7 +27297,7 @@
         <v>45077</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27354,7 +27354,7 @@
         <v>45077</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27411,7 +27411,7 @@
         <v>45079</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27468,7 +27468,7 @@
         <v>45082</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27525,7 +27525,7 @@
         <v>45089</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27582,7 +27582,7 @@
         <v>45092</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>45102</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>45103</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45103</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45106</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>45107</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27939,7 +27939,7 @@
         <v>45107</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27996,7 +27996,7 @@
         <v>45109</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         <v>45109</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28110,7 +28110,7 @@
         <v>45110</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28172,7 +28172,7 @@
         <v>45110</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28234,7 +28234,7 @@
         <v>45111</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28291,7 +28291,7 @@
         <v>45113</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28348,7 +28348,7 @@
         <v>45114</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28410,7 +28410,7 @@
         <v>45114</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28467,7 +28467,7 @@
         <v>45124</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28524,7 +28524,7 @@
         <v>45125</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28581,7 +28581,7 @@
         <v>45131</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28638,7 +28638,7 @@
         <v>45140</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28695,7 +28695,7 @@
         <v>45147</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28752,7 +28752,7 @@
         <v>45149</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28809,7 +28809,7 @@
         <v>45153</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         <v>45154</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>

--- a/Översikt SMEDJEBACKEN.xlsx
+++ b/Översikt SMEDJEBACKEN.xlsx
@@ -572,7 +572,7 @@
         <v>43888</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>43440</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>44441</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         <v>44305</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44859</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>43893</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>43964</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44091</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>44321</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>44420</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>44909</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>45018</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>45064</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>45127</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43707</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>43766</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43780</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>44426</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44432</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44776</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>44776</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>44826</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>45015</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>45064</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43322</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43322</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43339</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43385</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43417</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43417</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43417</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43417</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43419</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43438</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43438</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43446</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>43451</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>43454</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>43483</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>43489</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43497</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43506</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43506</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43506</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43509</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43515</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43536</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43552</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>43560</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>43565</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>43584</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>43593</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         <v>43595</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>43607</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>43616</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43616</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43616</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43616</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43629</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43630</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43643</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43652</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43678</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43684</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>43684</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>43689</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>43693</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43693</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43697</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43698</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43700</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43700</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43703</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43703</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43703</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43704</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43706</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43726</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43726</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43731</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43731</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43732</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>43739</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>43745</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>43745</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>43745</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43754</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>43754</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>43760</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>43760</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>43766</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7239,7 +7239,7 @@
         <v>43767</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
         <v>43773</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>43773</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>43775</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>43777</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>43779</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>43780</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>43795</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>43798</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>43811</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>43822</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>43822</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>43840</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>43840</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>43842</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>43843</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>43843</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>43845</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>43846</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>43850</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>43851</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>43853</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43854</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43864</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43866</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43872</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43882</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43885</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43886</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43887</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>43887</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>43887</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>43887</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>43888</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43896</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>43902</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>43915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>43915</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>43919</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         <v>43920</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>43921</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43921</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43927</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43927</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43929</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43941</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>43942</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9988,7 +9988,7 @@
         <v>43976</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10045,7 +10045,7 @@
         <v>43977</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>43979</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>43984</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43984</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>43986</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>43997</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>43997</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>44000</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>44007</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>44008</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>44015</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>44026</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10759,7 +10759,7 @@
         <v>44034</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>44047</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         <v>44050</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>44050</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>44062</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>44062</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44062</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44064</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44066</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44075</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44075</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44076</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44076</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>44102</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>44103</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>44105</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>44105</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>44105</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44106</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>44106</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>44108</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>44108</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44115</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44115</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44115</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44115</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44116</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44124</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44124</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44124</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>44124</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44124</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>44125</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>44126</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>44126</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44126</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>44126</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>44126</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44136</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>44141</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44147</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         <v>44148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>44148</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44159</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44161</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44164</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>44164</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>44164</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44165</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44166</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44179</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>44187</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44202</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44212</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>44230</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>44230</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>44234</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         <v>44236</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>44260</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>44260</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>44261</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14391,7 +14391,7 @@
         <v>44261</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>44284</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>44291</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         <v>44298</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>44298</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>44302</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>44302</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>44302</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
         <v>44305</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14924,7 +14924,7 @@
         <v>44305</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         <v>44306</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15043,7 +15043,7 @@
         <v>44307</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>44316</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>44316</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15219,7 +15219,7 @@
         <v>44319</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15281,7 +15281,7 @@
         <v>44321</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44321</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>44321</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44333</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>44342</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44342</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15648,7 +15648,7 @@
         <v>44354</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44354</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44355</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44355</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44357</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>44390</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16010,7 +16010,7 @@
         <v>44390</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>44403</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>44410</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44410</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44410</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44410</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44414</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44414</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44414</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44414</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44414</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44417</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44417</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44420</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>44420</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44424</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44426</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>44427</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>44431</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44431</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>44432</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>44434</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44434</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>44440</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17393,7 +17393,7 @@
         <v>44442</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44442</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17517,7 +17517,7 @@
         <v>44442</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44442</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44449</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44449</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>44453</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17822,7 +17822,7 @@
         <v>44455</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>44461</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17941,7 +17941,7 @@
         <v>44462</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18003,7 +18003,7 @@
         <v>44466</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44469</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44473</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44474</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44475</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>44475</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>44475</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>44476</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>44477</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>44477</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18608,7 +18608,7 @@
         <v>44482</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18670,7 +18670,7 @@
         <v>44482</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18732,7 +18732,7 @@
         <v>44482</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>44494</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18856,7 +18856,7 @@
         <v>44496</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
         <v>44496</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18970,7 +18970,7 @@
         <v>44496</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>44496</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19084,7 +19084,7 @@
         <v>44496</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>44496</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>44496</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>44503</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19312,7 +19312,7 @@
         <v>44508</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19374,7 +19374,7 @@
         <v>44508</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44515</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44525</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44530</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>44531</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44531</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44537</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>44539</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44563</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44563</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44563</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44566</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20093,7 +20093,7 @@
         <v>44566</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         <v>44568</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20212,7 +20212,7 @@
         <v>44571</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20269,7 +20269,7 @@
         <v>44574</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20326,7 +20326,7 @@
         <v>44581</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>44604</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>44608</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>44617</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>44623</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>44630</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>44630</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>44662</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>44666</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>44684</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20906,7 +20906,7 @@
         <v>44686</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20963,7 +20963,7 @@
         <v>44700</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21020,7 +21020,7 @@
         <v>44706</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21077,7 +21077,7 @@
         <v>44713</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21134,7 +21134,7 @@
         <v>44714</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21191,7 +21191,7 @@
         <v>44718</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21248,7 +21248,7 @@
         <v>44726</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21305,7 +21305,7 @@
         <v>44727</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>44733</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         <v>44735</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21486,7 +21486,7 @@
         <v>44774</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>44776</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>44776</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>44776</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>44776</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21791,7 +21791,7 @@
         <v>44776</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21853,7 +21853,7 @@
         <v>44776</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44776</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21977,7 +21977,7 @@
         <v>44778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>44778</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44781</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>44782</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>44787</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>44787</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>44787</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>44787</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>44790</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44799</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44811</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>44811</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44813</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22738,7 +22738,7 @@
         <v>44813</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44813</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22862,7 +22862,7 @@
         <v>44813</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44820</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>44824</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23048,7 +23048,7 @@
         <v>44826</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23105,7 +23105,7 @@
         <v>44827</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23162,7 +23162,7 @@
         <v>44831</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23224,7 +23224,7 @@
         <v>44831</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23286,7 +23286,7 @@
         <v>44832</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23343,7 +23343,7 @@
         <v>44840</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>44840</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23467,7 +23467,7 @@
         <v>44840</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23529,7 +23529,7 @@
         <v>44840</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>44842</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>44845</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>44845</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23757,7 +23757,7 @@
         <v>44855</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>44855</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>44859</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>44861</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>44861</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44872</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>44873</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24181,7 +24181,7 @@
         <v>44883</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>44886</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>44886</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>44887</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>44888</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
         <v>44888</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24533,7 +24533,7 @@
         <v>44889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24590,7 +24590,7 @@
         <v>44890</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24652,7 +24652,7 @@
         <v>44890</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>44893</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>44895</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>44896</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>44896</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>44897</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25009,7 +25009,7 @@
         <v>44902</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25071,7 +25071,7 @@
         <v>44903</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25133,7 +25133,7 @@
         <v>44909</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25190,7 +25190,7 @@
         <v>44914</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>44914</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25304,7 +25304,7 @@
         <v>44914</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25361,7 +25361,7 @@
         <v>44928</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>44937</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>44950</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>44966</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>44971</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>44977</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>44981</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>44995</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>45006</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>45006</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>45012</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25993,7 +25993,7 @@
         <v>45018</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>45019</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>45021</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45030</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45034</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26283,7 +26283,7 @@
         <v>45035</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26340,7 +26340,7 @@
         <v>45037</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         <v>45040</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26454,7 +26454,7 @@
         <v>45040</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>45041</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>45041</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>45058</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26682,7 +26682,7 @@
         <v>45062</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26739,7 +26739,7 @@
         <v>45063</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26801,7 +26801,7 @@
         <v>45063</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26863,7 +26863,7 @@
         <v>45063</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26925,7 +26925,7 @@
         <v>45063</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26987,7 +26987,7 @@
         <v>45064</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>45064</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>45064</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45070</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         <v>45072</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27297,7 +27297,7 @@
         <v>45077</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27354,7 +27354,7 @@
         <v>45077</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27411,7 +27411,7 @@
         <v>45079</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27468,7 +27468,7 @@
         <v>45082</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27525,7 +27525,7 @@
         <v>45089</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27582,7 +27582,7 @@
         <v>45092</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>45102</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>45103</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45103</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45106</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>45107</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27939,7 +27939,7 @@
         <v>45107</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27996,7 +27996,7 @@
         <v>45109</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         <v>45109</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28110,7 +28110,7 @@
         <v>45110</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28172,7 +28172,7 @@
         <v>45110</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28234,7 +28234,7 @@
         <v>45111</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28291,7 +28291,7 @@
         <v>45113</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28348,7 +28348,7 @@
         <v>45114</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28410,7 +28410,7 @@
         <v>45114</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28467,7 +28467,7 @@
         <v>45124</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28524,7 +28524,7 @@
         <v>45125</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28581,7 +28581,7 @@
         <v>45131</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28638,7 +28638,7 @@
         <v>45140</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28695,7 +28695,7 @@
         <v>45147</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28752,7 +28752,7 @@
         <v>45149</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28809,7 +28809,7 @@
         <v>45153</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         <v>45154</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>

--- a/Översikt SMEDJEBACKEN.xlsx
+++ b/Översikt SMEDJEBACKEN.xlsx
@@ -572,7 +572,7 @@
         <v>43888</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>43440</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>44441</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         <v>44305</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44859</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>43893</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>43964</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44091</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>44321</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>44420</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>44909</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>45018</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>45064</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>45127</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43707</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>43766</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43780</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>44426</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44432</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44776</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>44776</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>44826</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>45015</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>45064</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43322</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43322</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43339</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43385</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43417</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43417</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43417</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43417</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43419</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43438</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43438</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43446</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>43451</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>43454</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>43483</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>43489</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43497</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43506</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43506</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43506</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43509</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43515</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43536</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43552</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>43560</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>43565</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>43584</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>43593</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         <v>43595</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>43607</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>43616</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43616</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43616</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43616</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43629</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43630</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43643</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43652</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43678</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43684</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>43684</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>43689</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>43693</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43693</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43697</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43698</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43700</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43700</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43703</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43703</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43703</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43704</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43706</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43726</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43726</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43731</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43731</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43732</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>43739</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>43745</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>43745</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>43745</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43754</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>43754</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>43760</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>43760</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>43766</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7239,7 +7239,7 @@
         <v>43767</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
         <v>43773</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>43773</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>43775</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>43777</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>43779</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>43780</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>43795</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>43798</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>43811</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>43822</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>43822</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>43840</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>43840</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>43842</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>43843</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>43843</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>43845</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>43846</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>43850</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>43851</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>43853</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43854</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43864</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43866</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43872</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43882</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43885</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43886</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43887</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>43887</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>43887</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>43887</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>43888</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43896</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>43902</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>43915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>43915</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>43919</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         <v>43920</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>43921</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43921</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43927</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43927</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43929</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43941</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>43942</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9988,7 +9988,7 @@
         <v>43976</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10045,7 +10045,7 @@
         <v>43977</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>43979</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>43984</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43984</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>43986</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>43997</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>43997</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>44000</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>44007</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>44008</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>44015</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>44026</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10759,7 +10759,7 @@
         <v>44034</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>44047</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         <v>44050</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>44050</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>44062</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>44062</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44062</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44064</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44066</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44075</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44075</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44076</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44076</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>44102</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>44103</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>44105</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>44105</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>44105</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44106</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>44106</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>44108</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>44108</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44115</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44115</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44115</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44115</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44116</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44124</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44124</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44124</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>44124</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44124</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>44125</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>44126</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>44126</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44126</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>44126</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>44126</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44136</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>44141</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44147</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         <v>44148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>44148</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44159</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44161</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44164</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>44164</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>44164</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44165</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44166</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44179</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>44187</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44202</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44212</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>44230</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>44230</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>44234</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         <v>44236</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>44260</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>44260</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>44261</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14391,7 +14391,7 @@
         <v>44261</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>44284</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>44291</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         <v>44298</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>44298</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>44302</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>44302</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>44302</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
         <v>44305</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14924,7 +14924,7 @@
         <v>44305</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         <v>44306</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15043,7 +15043,7 @@
         <v>44307</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>44316</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>44316</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15219,7 +15219,7 @@
         <v>44319</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15281,7 +15281,7 @@
         <v>44321</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44321</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>44321</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44333</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>44342</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44342</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15648,7 +15648,7 @@
         <v>44354</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44354</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44355</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44355</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44357</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>44390</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16010,7 +16010,7 @@
         <v>44390</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>44403</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>44410</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44410</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44410</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44410</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44414</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44414</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44414</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44414</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44414</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44417</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44417</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44420</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>44420</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44424</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44426</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>44427</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>44431</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44431</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>44432</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>44434</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44434</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>44440</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17393,7 +17393,7 @@
         <v>44442</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44442</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17517,7 +17517,7 @@
         <v>44442</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44442</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44449</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44449</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>44453</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17822,7 +17822,7 @@
         <v>44455</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>44461</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17941,7 +17941,7 @@
         <v>44462</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18003,7 +18003,7 @@
         <v>44466</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44469</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44473</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44474</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44475</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>44475</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>44475</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>44476</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>44477</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>44477</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18608,7 +18608,7 @@
         <v>44482</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18670,7 +18670,7 @@
         <v>44482</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18732,7 +18732,7 @@
         <v>44482</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>44494</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18856,7 +18856,7 @@
         <v>44496</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
         <v>44496</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18970,7 +18970,7 @@
         <v>44496</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>44496</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19084,7 +19084,7 @@
         <v>44496</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>44496</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>44496</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>44503</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19312,7 +19312,7 @@
         <v>44508</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19374,7 +19374,7 @@
         <v>44508</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44515</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44525</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44530</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>44531</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44531</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44537</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>44539</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44563</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44563</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44563</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44566</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20093,7 +20093,7 @@
         <v>44566</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         <v>44568</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20212,7 +20212,7 @@
         <v>44571</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20269,7 +20269,7 @@
         <v>44574</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20326,7 +20326,7 @@
         <v>44581</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>44604</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>44608</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>44617</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>44623</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>44630</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>44630</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>44662</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>44666</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>44684</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20906,7 +20906,7 @@
         <v>44686</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20963,7 +20963,7 @@
         <v>44700</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21020,7 +21020,7 @@
         <v>44706</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21077,7 +21077,7 @@
         <v>44713</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21134,7 +21134,7 @@
         <v>44714</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21191,7 +21191,7 @@
         <v>44718</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21248,7 +21248,7 @@
         <v>44726</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21305,7 +21305,7 @@
         <v>44727</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>44733</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         <v>44735</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21486,7 +21486,7 @@
         <v>44774</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>44776</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>44776</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>44776</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>44776</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21791,7 +21791,7 @@
         <v>44776</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21853,7 +21853,7 @@
         <v>44776</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44776</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21977,7 +21977,7 @@
         <v>44778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>44778</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44781</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>44782</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>44787</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>44787</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>44787</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>44787</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>44790</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44799</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44811</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>44811</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44813</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22738,7 +22738,7 @@
         <v>44813</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44813</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22862,7 +22862,7 @@
         <v>44813</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44820</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>44824</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23048,7 +23048,7 @@
         <v>44826</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23105,7 +23105,7 @@
         <v>44827</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23162,7 +23162,7 @@
         <v>44831</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23224,7 +23224,7 @@
         <v>44831</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23286,7 +23286,7 @@
         <v>44832</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23343,7 +23343,7 @@
         <v>44840</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>44840</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23467,7 +23467,7 @@
         <v>44840</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23529,7 +23529,7 @@
         <v>44840</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>44842</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>44845</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>44845</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23757,7 +23757,7 @@
         <v>44855</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>44855</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>44859</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>44861</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>44861</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44872</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>44873</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24181,7 +24181,7 @@
         <v>44883</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>44886</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>44886</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>44887</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>44888</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
         <v>44888</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24533,7 +24533,7 @@
         <v>44889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24590,7 +24590,7 @@
         <v>44890</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24652,7 +24652,7 @@
         <v>44890</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>44893</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>44895</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>44896</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>44896</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>44897</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25009,7 +25009,7 @@
         <v>44902</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25071,7 +25071,7 @@
         <v>44903</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25133,7 +25133,7 @@
         <v>44909</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25190,7 +25190,7 @@
         <v>44914</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>44914</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25304,7 +25304,7 @@
         <v>44914</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25361,7 +25361,7 @@
         <v>44928</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>44937</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>44950</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>44966</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>44971</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>44977</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>44981</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>44995</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>45006</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>45006</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>45012</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25993,7 +25993,7 @@
         <v>45018</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>45019</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>45021</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45030</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45034</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26283,7 +26283,7 @@
         <v>45035</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26340,7 +26340,7 @@
         <v>45037</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         <v>45040</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26454,7 +26454,7 @@
         <v>45040</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>45041</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>45041</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>45058</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26682,7 +26682,7 @@
         <v>45062</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26739,7 +26739,7 @@
         <v>45063</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26801,7 +26801,7 @@
         <v>45063</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26863,7 +26863,7 @@
         <v>45063</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26925,7 +26925,7 @@
         <v>45063</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26987,7 +26987,7 @@
         <v>45064</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>45064</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>45064</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45070</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         <v>45072</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27297,7 +27297,7 @@
         <v>45077</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27354,7 +27354,7 @@
         <v>45077</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27411,7 +27411,7 @@
         <v>45079</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27468,7 +27468,7 @@
         <v>45082</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27525,7 +27525,7 @@
         <v>45089</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27582,7 +27582,7 @@
         <v>45092</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>45102</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>45103</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45103</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45106</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>45107</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27939,7 +27939,7 @@
         <v>45107</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27996,7 +27996,7 @@
         <v>45109</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         <v>45109</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28110,7 +28110,7 @@
         <v>45110</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28172,7 +28172,7 @@
         <v>45110</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28234,7 +28234,7 @@
         <v>45111</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28291,7 +28291,7 @@
         <v>45113</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28348,7 +28348,7 @@
         <v>45114</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28410,7 +28410,7 @@
         <v>45114</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28467,7 +28467,7 @@
         <v>45124</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28524,7 +28524,7 @@
         <v>45125</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28581,7 +28581,7 @@
         <v>45131</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28638,7 +28638,7 @@
         <v>45140</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28695,7 +28695,7 @@
         <v>45147</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28752,7 +28752,7 @@
         <v>45149</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28809,7 +28809,7 @@
         <v>45153</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         <v>45154</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>

--- a/Översikt SMEDJEBACKEN.xlsx
+++ b/Översikt SMEDJEBACKEN.xlsx
@@ -572,7 +572,7 @@
         <v>43888</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>43440</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>44441</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         <v>44305</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44859</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>43893</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>43964</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44091</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>44321</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>44420</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>44909</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>45018</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>45064</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>45127</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43707</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>43766</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43780</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>44426</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44432</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44776</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>44776</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>44826</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>45015</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>45064</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43322</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43322</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43339</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43385</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43417</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43417</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43417</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43417</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43419</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43438</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43438</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43446</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>43451</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>43454</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>43483</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>43489</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43497</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43506</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43506</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43506</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43509</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43515</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43536</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43552</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>43560</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>43565</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>43584</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>43593</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         <v>43595</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>43607</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>43616</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43616</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43616</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43616</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43629</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43630</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43643</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43652</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43678</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43684</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>43684</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>43689</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>43693</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43693</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43697</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43698</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43700</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43700</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43703</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43703</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43703</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43704</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43706</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43726</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43726</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43731</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43731</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43732</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>43739</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>43745</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>43745</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>43745</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43754</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>43754</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>43760</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>43760</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>43766</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7239,7 +7239,7 @@
         <v>43767</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
         <v>43773</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>43773</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>43775</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>43777</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>43779</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>43780</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>43795</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>43798</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>43811</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>43822</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>43822</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>43840</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>43840</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>43842</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>43843</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>43843</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>43845</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>43846</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>43850</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>43851</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>43853</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43854</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43864</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43866</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43872</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43882</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43885</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43886</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43887</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>43887</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>43887</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>43887</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>43888</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43896</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>43902</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>43915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>43915</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>43919</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         <v>43920</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>43921</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43921</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43927</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43927</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43929</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43941</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>43942</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9988,7 +9988,7 @@
         <v>43976</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10045,7 +10045,7 @@
         <v>43977</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>43979</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>43984</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43984</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>43986</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>43997</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>43997</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>44000</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>44007</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>44008</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>44015</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>44026</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10759,7 +10759,7 @@
         <v>44034</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>44047</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         <v>44050</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>44050</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>44062</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>44062</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44062</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44064</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44066</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44075</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44075</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44076</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44076</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>44102</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>44103</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>44105</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>44105</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>44105</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44106</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>44106</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>44108</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>44108</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44115</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44115</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44115</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44115</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44116</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44124</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44124</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44124</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>44124</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44124</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>44125</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>44126</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>44126</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44126</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>44126</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>44126</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44136</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>44141</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44147</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         <v>44148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>44148</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44159</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44161</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44164</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>44164</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>44164</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44165</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44166</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44179</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>44187</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44202</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44212</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>44230</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>44230</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>44234</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         <v>44236</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>44260</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>44260</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>44261</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14391,7 +14391,7 @@
         <v>44261</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>44284</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>44291</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         <v>44298</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>44298</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>44302</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>44302</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>44302</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
         <v>44305</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14924,7 +14924,7 @@
         <v>44305</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         <v>44306</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15043,7 +15043,7 @@
         <v>44307</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>44316</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>44316</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15219,7 +15219,7 @@
         <v>44319</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15281,7 +15281,7 @@
         <v>44321</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44321</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>44321</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44333</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>44342</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44342</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15648,7 +15648,7 @@
         <v>44354</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44354</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44355</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44355</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44357</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>44390</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16010,7 +16010,7 @@
         <v>44390</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>44403</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>44410</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44410</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44410</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44410</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44414</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44414</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44414</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44414</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44414</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44417</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44417</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44420</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>44420</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44424</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44426</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>44427</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>44431</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44431</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>44432</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>44434</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44434</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>44440</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17393,7 +17393,7 @@
         <v>44442</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44442</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17517,7 +17517,7 @@
         <v>44442</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44442</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44449</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44449</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>44453</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17822,7 +17822,7 @@
         <v>44455</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>44461</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17941,7 +17941,7 @@
         <v>44462</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18003,7 +18003,7 @@
         <v>44466</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44469</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44473</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44474</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44475</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>44475</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>44475</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>44476</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>44477</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>44477</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18608,7 +18608,7 @@
         <v>44482</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18670,7 +18670,7 @@
         <v>44482</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18732,7 +18732,7 @@
         <v>44482</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>44494</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18856,7 +18856,7 @@
         <v>44496</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
         <v>44496</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18970,7 +18970,7 @@
         <v>44496</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>44496</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19084,7 +19084,7 @@
         <v>44496</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>44496</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>44496</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>44503</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19312,7 +19312,7 @@
         <v>44508</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19374,7 +19374,7 @@
         <v>44508</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44515</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44525</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44530</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>44531</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44531</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44537</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>44539</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44563</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44563</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44563</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44566</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20093,7 +20093,7 @@
         <v>44566</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         <v>44568</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20212,7 +20212,7 @@
         <v>44571</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20269,7 +20269,7 @@
         <v>44574</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20326,7 +20326,7 @@
         <v>44581</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>44604</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>44608</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>44617</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>44623</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>44630</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>44630</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>44662</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>44666</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>44684</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20906,7 +20906,7 @@
         <v>44686</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20963,7 +20963,7 @@
         <v>44700</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21020,7 +21020,7 @@
         <v>44706</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21077,7 +21077,7 @@
         <v>44713</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21134,7 +21134,7 @@
         <v>44714</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21191,7 +21191,7 @@
         <v>44718</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21248,7 +21248,7 @@
         <v>44726</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21305,7 +21305,7 @@
         <v>44727</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>44733</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         <v>44735</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21486,7 +21486,7 @@
         <v>44774</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>44776</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>44776</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>44776</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>44776</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21791,7 +21791,7 @@
         <v>44776</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21853,7 +21853,7 @@
         <v>44776</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44776</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21977,7 +21977,7 @@
         <v>44778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>44778</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44781</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>44782</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>44787</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>44787</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>44787</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>44787</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>44790</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44799</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44811</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>44811</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44813</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22738,7 +22738,7 @@
         <v>44813</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44813</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22862,7 +22862,7 @@
         <v>44813</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44820</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>44824</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23048,7 +23048,7 @@
         <v>44826</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23105,7 +23105,7 @@
         <v>44827</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23162,7 +23162,7 @@
         <v>44831</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23224,7 +23224,7 @@
         <v>44831</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23286,7 +23286,7 @@
         <v>44832</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23343,7 +23343,7 @@
         <v>44840</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>44840</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23467,7 +23467,7 @@
         <v>44840</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23529,7 +23529,7 @@
         <v>44840</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>44842</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>44845</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>44845</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23757,7 +23757,7 @@
         <v>44855</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>44855</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>44859</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>44861</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>44861</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44872</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>44873</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24181,7 +24181,7 @@
         <v>44883</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>44886</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>44886</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>44887</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>44888</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
         <v>44888</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24533,7 +24533,7 @@
         <v>44889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24590,7 +24590,7 @@
         <v>44890</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24652,7 +24652,7 @@
         <v>44890</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>44893</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>44895</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>44896</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>44896</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>44897</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25009,7 +25009,7 @@
         <v>44902</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25071,7 +25071,7 @@
         <v>44903</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25133,7 +25133,7 @@
         <v>44909</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25190,7 +25190,7 @@
         <v>44914</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>44914</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25304,7 +25304,7 @@
         <v>44914</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25361,7 +25361,7 @@
         <v>44928</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>44937</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>44950</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>44966</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>44971</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>44977</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>44981</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>44995</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>45006</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>45006</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>45012</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25993,7 +25993,7 @@
         <v>45018</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>45019</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>45021</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45030</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45034</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26283,7 +26283,7 @@
         <v>45035</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26340,7 +26340,7 @@
         <v>45037</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         <v>45040</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26454,7 +26454,7 @@
         <v>45040</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>45041</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>45041</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>45058</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26682,7 +26682,7 @@
         <v>45062</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26739,7 +26739,7 @@
         <v>45063</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26801,7 +26801,7 @@
         <v>45063</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26863,7 +26863,7 @@
         <v>45063</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26925,7 +26925,7 @@
         <v>45063</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26987,7 +26987,7 @@
         <v>45064</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>45064</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>45064</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45070</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         <v>45072</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27297,7 +27297,7 @@
         <v>45077</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27354,7 +27354,7 @@
         <v>45077</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27411,7 +27411,7 @@
         <v>45079</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27468,7 +27468,7 @@
         <v>45082</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27525,7 +27525,7 @@
         <v>45089</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27582,7 +27582,7 @@
         <v>45092</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>45102</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>45103</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45103</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45106</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>45107</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27939,7 +27939,7 @@
         <v>45107</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27996,7 +27996,7 @@
         <v>45109</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         <v>45109</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28110,7 +28110,7 @@
         <v>45110</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28172,7 +28172,7 @@
         <v>45110</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28234,7 +28234,7 @@
         <v>45111</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28291,7 +28291,7 @@
         <v>45113</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28348,7 +28348,7 @@
         <v>45114</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28410,7 +28410,7 @@
         <v>45114</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28467,7 +28467,7 @@
         <v>45124</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28524,7 +28524,7 @@
         <v>45125</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28581,7 +28581,7 @@
         <v>45131</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28638,7 +28638,7 @@
         <v>45140</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28695,7 +28695,7 @@
         <v>45147</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28752,7 +28752,7 @@
         <v>45149</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28809,7 +28809,7 @@
         <v>45153</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         <v>45154</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>

--- a/Översikt SMEDJEBACKEN.xlsx
+++ b/Översikt SMEDJEBACKEN.xlsx
@@ -572,7 +572,7 @@
         <v>43888</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>43440</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>44441</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         <v>44305</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44859</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>43893</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>43964</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44091</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>44321</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>44420</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>44909</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>45018</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>45064</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>45127</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43707</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>43766</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43780</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>44426</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44432</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44776</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>44776</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>44826</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>45015</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>45064</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43322</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43322</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43339</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43385</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43417</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43417</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43417</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43417</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43419</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43438</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43438</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43446</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>43451</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>43454</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>43483</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>43489</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43497</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43506</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43506</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43506</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43509</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43515</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43536</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43552</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>43560</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>43565</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>43584</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>43593</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         <v>43595</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>43607</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>43616</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43616</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43616</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43616</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43629</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43630</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43643</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43652</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43678</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43684</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>43684</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>43689</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>43693</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43693</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43697</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43698</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43700</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43700</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43703</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43703</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43703</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43704</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43706</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43726</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43726</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43731</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43731</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43732</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>43739</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>43745</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>43745</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>43745</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43754</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>43754</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>43760</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>43760</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>43766</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7239,7 +7239,7 @@
         <v>43767</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
         <v>43773</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>43773</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>43775</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>43777</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>43779</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>43780</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>43795</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>43798</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>43811</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>43822</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>43822</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>43840</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>43840</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>43842</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>43843</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>43843</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>43845</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>43846</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>43850</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>43851</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>43853</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43854</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43864</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43866</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43872</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43882</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43885</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43886</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43887</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>43887</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>43887</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>43887</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>43888</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43896</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>43902</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>43915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>43915</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>43919</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         <v>43920</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>43921</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43921</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43927</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43927</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43929</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43941</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>43942</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9988,7 +9988,7 @@
         <v>43976</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10045,7 +10045,7 @@
         <v>43977</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>43979</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>43984</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43984</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>43986</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>43997</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>43997</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>44000</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>44007</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>44008</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>44015</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>44026</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10759,7 +10759,7 @@
         <v>44034</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>44047</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         <v>44050</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>44050</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>44062</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>44062</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44062</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44064</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44066</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44075</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44075</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44076</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44076</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>44102</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>44103</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>44105</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>44105</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>44105</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44106</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>44106</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>44108</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>44108</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44115</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44115</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44115</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44115</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44116</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44124</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44124</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44124</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>44124</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44124</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>44125</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>44126</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>44126</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44126</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>44126</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>44126</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44136</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>44141</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44147</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         <v>44148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>44148</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44159</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44161</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44164</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>44164</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>44164</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44165</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44166</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44179</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>44187</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44202</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44212</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>44230</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>44230</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>44234</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         <v>44236</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>44260</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>44260</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>44261</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14391,7 +14391,7 @@
         <v>44261</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>44284</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>44291</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         <v>44298</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>44298</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>44302</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>44302</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>44302</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
         <v>44305</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14924,7 +14924,7 @@
         <v>44305</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         <v>44306</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15043,7 +15043,7 @@
         <v>44307</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>44316</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>44316</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15219,7 +15219,7 @@
         <v>44319</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15281,7 +15281,7 @@
         <v>44321</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44321</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>44321</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44333</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>44342</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44342</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15648,7 +15648,7 @@
         <v>44354</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44354</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44355</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44355</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44357</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>44390</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16010,7 +16010,7 @@
         <v>44390</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>44403</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>44410</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44410</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44410</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44410</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44414</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44414</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44414</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44414</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44414</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44417</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44417</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44420</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>44420</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44424</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44426</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>44427</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>44431</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44431</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>44432</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>44434</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44434</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>44440</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17393,7 +17393,7 @@
         <v>44442</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44442</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17517,7 +17517,7 @@
         <v>44442</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44442</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44449</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44449</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>44453</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17822,7 +17822,7 @@
         <v>44455</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>44461</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17941,7 +17941,7 @@
         <v>44462</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18003,7 +18003,7 @@
         <v>44466</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44469</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44473</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44474</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44475</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>44475</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>44475</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>44476</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>44477</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>44477</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18608,7 +18608,7 @@
         <v>44482</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18670,7 +18670,7 @@
         <v>44482</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18732,7 +18732,7 @@
         <v>44482</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>44494</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18856,7 +18856,7 @@
         <v>44496</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
         <v>44496</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18970,7 +18970,7 @@
         <v>44496</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>44496</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19084,7 +19084,7 @@
         <v>44496</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>44496</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>44496</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>44503</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19312,7 +19312,7 @@
         <v>44508</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19374,7 +19374,7 @@
         <v>44508</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44515</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44525</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44530</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>44531</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44531</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44537</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>44539</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44563</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44563</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44563</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44566</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20093,7 +20093,7 @@
         <v>44566</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         <v>44568</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20212,7 +20212,7 @@
         <v>44571</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20269,7 +20269,7 @@
         <v>44574</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20326,7 +20326,7 @@
         <v>44581</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>44604</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>44608</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>44617</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>44623</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>44630</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>44630</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>44662</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>44666</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>44684</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20906,7 +20906,7 @@
         <v>44686</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20963,7 +20963,7 @@
         <v>44700</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21020,7 +21020,7 @@
         <v>44706</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21077,7 +21077,7 @@
         <v>44713</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21134,7 +21134,7 @@
         <v>44714</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21191,7 +21191,7 @@
         <v>44718</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21248,7 +21248,7 @@
         <v>44726</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21305,7 +21305,7 @@
         <v>44727</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>44733</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         <v>44735</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21486,7 +21486,7 @@
         <v>44774</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>44776</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>44776</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>44776</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>44776</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21791,7 +21791,7 @@
         <v>44776</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21853,7 +21853,7 @@
         <v>44776</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44776</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21977,7 +21977,7 @@
         <v>44778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>44778</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44781</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>44782</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>44787</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>44787</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>44787</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>44787</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>44790</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44799</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44811</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>44811</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44813</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22738,7 +22738,7 @@
         <v>44813</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44813</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22862,7 +22862,7 @@
         <v>44813</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44820</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>44824</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23048,7 +23048,7 @@
         <v>44826</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23105,7 +23105,7 @@
         <v>44827</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23162,7 +23162,7 @@
         <v>44831</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23224,7 +23224,7 @@
         <v>44831</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23286,7 +23286,7 @@
         <v>44832</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23343,7 +23343,7 @@
         <v>44840</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>44840</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23467,7 +23467,7 @@
         <v>44840</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23529,7 +23529,7 @@
         <v>44840</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>44842</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>44845</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>44845</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23757,7 +23757,7 @@
         <v>44855</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>44855</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>44859</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>44861</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>44861</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44872</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>44873</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24181,7 +24181,7 @@
         <v>44883</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>44886</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>44886</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>44887</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>44888</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
         <v>44888</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24533,7 +24533,7 @@
         <v>44889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24590,7 +24590,7 @@
         <v>44890</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24652,7 +24652,7 @@
         <v>44890</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>44893</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>44895</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>44896</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>44896</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>44897</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25009,7 +25009,7 @@
         <v>44902</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25071,7 +25071,7 @@
         <v>44903</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25133,7 +25133,7 @@
         <v>44909</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25190,7 +25190,7 @@
         <v>44914</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>44914</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25304,7 +25304,7 @@
         <v>44914</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25361,7 +25361,7 @@
         <v>44928</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>44937</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>44950</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>44966</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>44971</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>44977</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>44981</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>44995</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>45006</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>45006</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>45012</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25993,7 +25993,7 @@
         <v>45018</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>45019</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>45021</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45030</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45034</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26283,7 +26283,7 @@
         <v>45035</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26340,7 +26340,7 @@
         <v>45037</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         <v>45040</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26454,7 +26454,7 @@
         <v>45040</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>45041</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>45041</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>45058</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26682,7 +26682,7 @@
         <v>45062</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26739,7 +26739,7 @@
         <v>45063</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26801,7 +26801,7 @@
         <v>45063</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26863,7 +26863,7 @@
         <v>45063</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26925,7 +26925,7 @@
         <v>45063</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26987,7 +26987,7 @@
         <v>45064</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>45064</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>45064</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45070</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         <v>45072</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27297,7 +27297,7 @@
         <v>45077</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27354,7 +27354,7 @@
         <v>45077</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27411,7 +27411,7 @@
         <v>45079</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27468,7 +27468,7 @@
         <v>45082</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27525,7 +27525,7 @@
         <v>45089</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27582,7 +27582,7 @@
         <v>45092</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>45102</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>45103</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45103</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45106</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>45107</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27939,7 +27939,7 @@
         <v>45107</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27996,7 +27996,7 @@
         <v>45109</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         <v>45109</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28110,7 +28110,7 @@
         <v>45110</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28172,7 +28172,7 @@
         <v>45110</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28234,7 +28234,7 @@
         <v>45111</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28291,7 +28291,7 @@
         <v>45113</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28348,7 +28348,7 @@
         <v>45114</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28410,7 +28410,7 @@
         <v>45114</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28467,7 +28467,7 @@
         <v>45124</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28524,7 +28524,7 @@
         <v>45125</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28581,7 +28581,7 @@
         <v>45131</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28638,7 +28638,7 @@
         <v>45140</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28695,7 +28695,7 @@
         <v>45147</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28752,7 +28752,7 @@
         <v>45149</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28809,7 +28809,7 @@
         <v>45153</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         <v>45154</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>

--- a/Översikt SMEDJEBACKEN.xlsx
+++ b/Översikt SMEDJEBACKEN.xlsx
@@ -572,7 +572,7 @@
         <v>43888</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>43440</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>44441</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         <v>44305</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44859</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>43893</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>43964</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44091</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>44321</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>44420</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>44909</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>45018</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>45064</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>45127</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43707</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>43766</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43780</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>44426</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44432</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44776</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>44776</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>44826</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>45015</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>45064</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43322</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43322</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43339</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43385</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43417</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43417</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43417</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43417</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43419</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43438</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43438</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43446</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>43451</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>43454</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>43483</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>43489</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43497</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43506</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43506</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43506</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43509</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43515</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43536</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43552</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>43560</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>43565</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>43584</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>43593</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         <v>43595</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>43607</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>43616</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43616</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43616</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43616</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43629</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43630</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43643</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43652</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43678</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43684</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>43684</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>43689</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>43693</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43693</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43697</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43698</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43700</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43700</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43703</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43703</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43703</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43704</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43706</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43726</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43726</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43731</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43731</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43732</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>43739</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>43745</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>43745</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>43745</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43754</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>43754</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>43760</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>43760</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>43766</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7239,7 +7239,7 @@
         <v>43767</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
         <v>43773</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>43773</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>43775</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>43777</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>43779</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>43780</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>43795</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>43798</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>43811</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>43822</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>43822</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>43840</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>43840</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>43842</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>43843</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>43843</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>43845</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>43846</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>43850</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>43851</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>43853</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43854</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43864</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43866</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43872</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43882</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43885</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43886</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43887</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>43887</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>43887</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>43887</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>43888</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43896</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>43902</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>43915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>43915</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>43919</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         <v>43920</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>43921</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43921</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43927</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43927</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43929</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43941</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>43942</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9988,7 +9988,7 @@
         <v>43976</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10045,7 +10045,7 @@
         <v>43977</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>43979</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>43984</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43984</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>43986</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>43997</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>43997</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>44000</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>44007</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>44008</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>44015</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>44026</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10759,7 +10759,7 @@
         <v>44034</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>44047</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         <v>44050</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>44050</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>44062</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>44062</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44062</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44064</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44066</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44075</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44075</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44076</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44076</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>44102</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>44103</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>44105</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>44105</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>44105</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44106</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>44106</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>44108</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>44108</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44115</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44115</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44115</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44115</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44116</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44124</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44124</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44124</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>44124</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44124</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>44125</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>44126</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>44126</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44126</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>44126</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>44126</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44136</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>44141</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44147</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         <v>44148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>44148</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44159</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44161</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44164</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>44164</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>44164</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44165</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44166</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44179</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>44187</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44202</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44212</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>44230</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>44230</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>44234</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         <v>44236</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>44260</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>44260</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>44261</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14391,7 +14391,7 @@
         <v>44261</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>44284</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>44291</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         <v>44298</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>44298</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>44302</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>44302</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>44302</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
         <v>44305</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14924,7 +14924,7 @@
         <v>44305</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         <v>44306</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15043,7 +15043,7 @@
         <v>44307</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>44316</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>44316</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15219,7 +15219,7 @@
         <v>44319</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15281,7 +15281,7 @@
         <v>44321</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44321</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>44321</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44333</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>44342</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44342</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15648,7 +15648,7 @@
         <v>44354</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44354</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44355</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44355</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44357</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>44390</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16010,7 +16010,7 @@
         <v>44390</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>44403</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>44410</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44410</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44410</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44410</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44414</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44414</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44414</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44414</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44414</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44417</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44417</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44420</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>44420</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44424</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44426</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>44427</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>44431</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44431</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>44432</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>44434</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44434</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>44440</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17393,7 +17393,7 @@
         <v>44442</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44442</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17517,7 +17517,7 @@
         <v>44442</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44442</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44449</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44449</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>44453</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17822,7 +17822,7 @@
         <v>44455</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>44461</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17941,7 +17941,7 @@
         <v>44462</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18003,7 +18003,7 @@
         <v>44466</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44469</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44473</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44474</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44475</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>44475</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>44475</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>44476</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>44477</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>44477</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18608,7 +18608,7 @@
         <v>44482</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18670,7 +18670,7 @@
         <v>44482</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18732,7 +18732,7 @@
         <v>44482</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>44494</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18856,7 +18856,7 @@
         <v>44496</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
         <v>44496</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18970,7 +18970,7 @@
         <v>44496</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>44496</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19084,7 +19084,7 @@
         <v>44496</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>44496</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>44496</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>44503</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19312,7 +19312,7 @@
         <v>44508</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19374,7 +19374,7 @@
         <v>44508</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44515</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44525</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44530</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>44531</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44531</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44537</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>44539</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44563</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44563</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44563</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44566</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20093,7 +20093,7 @@
         <v>44566</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         <v>44568</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20212,7 +20212,7 @@
         <v>44571</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20269,7 +20269,7 @@
         <v>44574</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20326,7 +20326,7 @@
         <v>44581</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>44604</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>44608</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>44617</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>44623</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>44630</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>44630</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>44662</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>44666</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>44684</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20906,7 +20906,7 @@
         <v>44686</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20963,7 +20963,7 @@
         <v>44700</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21020,7 +21020,7 @@
         <v>44706</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21077,7 +21077,7 @@
         <v>44713</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21134,7 +21134,7 @@
         <v>44714</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21191,7 +21191,7 @@
         <v>44718</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21248,7 +21248,7 @@
         <v>44726</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21305,7 +21305,7 @@
         <v>44727</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>44733</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         <v>44735</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21486,7 +21486,7 @@
         <v>44774</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>44776</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>44776</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>44776</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>44776</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21791,7 +21791,7 @@
         <v>44776</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21853,7 +21853,7 @@
         <v>44776</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44776</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21977,7 +21977,7 @@
         <v>44778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>44778</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44781</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>44782</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>44787</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>44787</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>44787</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>44787</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>44790</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44799</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44811</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>44811</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44813</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22738,7 +22738,7 @@
         <v>44813</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44813</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22862,7 +22862,7 @@
         <v>44813</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44820</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>44824</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23048,7 +23048,7 @@
         <v>44826</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23105,7 +23105,7 @@
         <v>44827</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23162,7 +23162,7 @@
         <v>44831</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23224,7 +23224,7 @@
         <v>44831</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23286,7 +23286,7 @@
         <v>44832</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23343,7 +23343,7 @@
         <v>44840</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>44840</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23467,7 +23467,7 @@
         <v>44840</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23529,7 +23529,7 @@
         <v>44840</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>44842</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>44845</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>44845</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23757,7 +23757,7 @@
         <v>44855</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>44855</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>44859</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>44861</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>44861</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44872</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>44873</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24181,7 +24181,7 @@
         <v>44883</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>44886</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>44886</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>44887</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>44888</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
         <v>44888</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24533,7 +24533,7 @@
         <v>44889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24590,7 +24590,7 @@
         <v>44890</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24652,7 +24652,7 @@
         <v>44890</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>44893</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>44895</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>44896</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>44896</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>44897</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25009,7 +25009,7 @@
         <v>44902</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25071,7 +25071,7 @@
         <v>44903</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25133,7 +25133,7 @@
         <v>44909</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25190,7 +25190,7 @@
         <v>44914</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>44914</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25304,7 +25304,7 @@
         <v>44914</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25361,7 +25361,7 @@
         <v>44928</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>44937</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>44950</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>44966</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>44971</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>44977</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>44981</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>44995</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>45006</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>45006</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>45012</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25993,7 +25993,7 @@
         <v>45018</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>45019</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>45021</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45030</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45034</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26283,7 +26283,7 @@
         <v>45035</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26340,7 +26340,7 @@
         <v>45037</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         <v>45040</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26454,7 +26454,7 @@
         <v>45040</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>45041</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>45041</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>45058</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26682,7 +26682,7 @@
         <v>45062</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26739,7 +26739,7 @@
         <v>45063</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26801,7 +26801,7 @@
         <v>45063</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26863,7 +26863,7 @@
         <v>45063</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26925,7 +26925,7 @@
         <v>45063</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26987,7 +26987,7 @@
         <v>45064</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>45064</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>45064</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45070</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         <v>45072</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27297,7 +27297,7 @@
         <v>45077</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27354,7 +27354,7 @@
         <v>45077</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27411,7 +27411,7 @@
         <v>45079</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27468,7 +27468,7 @@
         <v>45082</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27525,7 +27525,7 @@
         <v>45089</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27582,7 +27582,7 @@
         <v>45092</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>45102</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>45103</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45103</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45106</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>45107</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27939,7 +27939,7 @@
         <v>45107</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27996,7 +27996,7 @@
         <v>45109</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         <v>45109</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28110,7 +28110,7 @@
         <v>45110</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28172,7 +28172,7 @@
         <v>45110</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28234,7 +28234,7 @@
         <v>45111</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28291,7 +28291,7 @@
         <v>45113</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28348,7 +28348,7 @@
         <v>45114</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28410,7 +28410,7 @@
         <v>45114</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28467,7 +28467,7 @@
         <v>45124</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28524,7 +28524,7 @@
         <v>45125</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28581,7 +28581,7 @@
         <v>45131</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28638,7 +28638,7 @@
         <v>45140</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28695,7 +28695,7 @@
         <v>45147</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28752,7 +28752,7 @@
         <v>45149</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28809,7 +28809,7 @@
         <v>45153</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         <v>45154</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>

--- a/Översikt SMEDJEBACKEN.xlsx
+++ b/Översikt SMEDJEBACKEN.xlsx
@@ -572,7 +572,7 @@
         <v>43888</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>43440</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>44441</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         <v>44305</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44859</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>43893</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>43964</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44091</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>44321</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>44420</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>44909</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>45018</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>45064</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>45127</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43707</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>43766</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43780</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>44426</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44432</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44776</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>44776</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>44826</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>45015</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>45064</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43322</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43322</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43339</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43385</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43417</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43417</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43417</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43417</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43419</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43438</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43438</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43446</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>43451</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>43454</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>43483</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>43489</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43497</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43506</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43506</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43506</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43509</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43515</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43536</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43552</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>43560</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>43565</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>43584</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>43593</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         <v>43595</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>43607</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>43616</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43616</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43616</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43616</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43629</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43630</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43643</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43652</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43678</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43684</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>43684</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>43689</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>43693</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43693</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43697</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43698</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43700</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43700</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43703</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43703</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43703</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43704</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43706</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43726</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43726</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43731</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43731</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43732</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>43739</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>43745</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>43745</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>43745</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43754</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>43754</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>43760</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>43760</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>43766</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7239,7 +7239,7 @@
         <v>43767</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
         <v>43773</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>43773</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>43775</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>43777</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>43779</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>43780</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>43795</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>43798</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>43811</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>43822</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>43822</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>43840</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>43840</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>43842</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>43843</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>43843</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>43845</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>43846</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>43850</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>43851</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>43853</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43854</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43864</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43866</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43872</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43882</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43885</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43886</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43887</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>43887</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>43887</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>43887</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>43888</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43896</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>43902</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>43915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>43915</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>43919</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         <v>43920</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>43921</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43921</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43927</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43927</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43929</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43941</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>43942</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9988,7 +9988,7 @@
         <v>43976</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10045,7 +10045,7 @@
         <v>43977</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>43979</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>43984</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43984</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>43986</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>43997</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>43997</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>44000</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>44007</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>44008</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>44015</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>44026</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10759,7 +10759,7 @@
         <v>44034</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>44047</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         <v>44050</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>44050</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>44062</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>44062</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44062</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44064</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44066</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44075</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44075</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44076</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44076</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>44102</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>44103</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>44105</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>44105</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>44105</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44106</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>44106</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>44108</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>44108</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44115</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44115</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44115</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44115</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44116</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44124</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44124</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44124</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>44124</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44124</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>44125</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>44126</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>44126</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44126</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>44126</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>44126</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44136</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>44141</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44147</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         <v>44148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>44148</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44159</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44161</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44164</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>44164</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>44164</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44165</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44166</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44179</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>44187</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44202</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44212</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>44230</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>44230</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>44234</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         <v>44236</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>44260</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>44260</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>44261</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14391,7 +14391,7 @@
         <v>44261</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>44284</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>44291</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         <v>44298</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>44298</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>44302</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>44302</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>44302</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
         <v>44305</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14924,7 +14924,7 @@
         <v>44305</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         <v>44306</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15043,7 +15043,7 @@
         <v>44307</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>44316</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>44316</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15219,7 +15219,7 @@
         <v>44319</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15281,7 +15281,7 @@
         <v>44321</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44321</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>44321</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44333</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>44342</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44342</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15648,7 +15648,7 @@
         <v>44354</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44354</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44355</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44355</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44357</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>44390</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16010,7 +16010,7 @@
         <v>44390</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>44403</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>44410</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44410</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44410</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44410</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44414</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44414</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44414</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44414</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44414</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44417</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44417</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44420</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>44420</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44424</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44426</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>44427</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>44431</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44431</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>44432</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>44434</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44434</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>44440</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17393,7 +17393,7 @@
         <v>44442</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44442</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17517,7 +17517,7 @@
         <v>44442</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44442</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44449</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44449</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>44453</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17822,7 +17822,7 @@
         <v>44455</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>44461</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17941,7 +17941,7 @@
         <v>44462</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18003,7 +18003,7 @@
         <v>44466</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44469</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44473</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44474</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44475</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>44475</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>44475</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>44476</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>44477</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>44477</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18608,7 +18608,7 @@
         <v>44482</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18670,7 +18670,7 @@
         <v>44482</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18732,7 +18732,7 @@
         <v>44482</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>44494</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18856,7 +18856,7 @@
         <v>44496</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
         <v>44496</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18970,7 +18970,7 @@
         <v>44496</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>44496</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19084,7 +19084,7 @@
         <v>44496</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>44496</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>44496</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>44503</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19312,7 +19312,7 @@
         <v>44508</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19374,7 +19374,7 @@
         <v>44508</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44515</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44525</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44530</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>44531</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44531</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44537</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>44539</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44563</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44563</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44563</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44566</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20093,7 +20093,7 @@
         <v>44566</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         <v>44568</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20212,7 +20212,7 @@
         <v>44571</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20269,7 +20269,7 @@
         <v>44574</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20326,7 +20326,7 @@
         <v>44581</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>44604</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>44608</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>44617</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>44623</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>44630</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>44630</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>44662</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>44666</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>44684</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20906,7 +20906,7 @@
         <v>44686</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20963,7 +20963,7 @@
         <v>44700</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21020,7 +21020,7 @@
         <v>44706</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21077,7 +21077,7 @@
         <v>44713</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21134,7 +21134,7 @@
         <v>44714</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21191,7 +21191,7 @@
         <v>44718</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21248,7 +21248,7 @@
         <v>44726</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21305,7 +21305,7 @@
         <v>44727</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>44733</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         <v>44735</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21486,7 +21486,7 @@
         <v>44774</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>44776</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>44776</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>44776</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>44776</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21791,7 +21791,7 @@
         <v>44776</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21853,7 +21853,7 @@
         <v>44776</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44776</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21977,7 +21977,7 @@
         <v>44778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>44778</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44781</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>44782</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>44787</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>44787</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>44787</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>44787</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>44790</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44799</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44811</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>44811</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44813</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22738,7 +22738,7 @@
         <v>44813</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44813</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22862,7 +22862,7 @@
         <v>44813</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44820</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>44824</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23048,7 +23048,7 @@
         <v>44826</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23105,7 +23105,7 @@
         <v>44827</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23162,7 +23162,7 @@
         <v>44831</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23224,7 +23224,7 @@
         <v>44831</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23286,7 +23286,7 @@
         <v>44832</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23343,7 +23343,7 @@
         <v>44840</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>44840</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23467,7 +23467,7 @@
         <v>44840</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23529,7 +23529,7 @@
         <v>44840</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>44842</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>44845</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>44845</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23757,7 +23757,7 @@
         <v>44855</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>44855</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>44859</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>44861</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>44861</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44872</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>44873</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24181,7 +24181,7 @@
         <v>44883</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>44886</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>44886</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>44887</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>44888</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
         <v>44888</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24533,7 +24533,7 @@
         <v>44889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24590,7 +24590,7 @@
         <v>44890</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24652,7 +24652,7 @@
         <v>44890</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>44893</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>44895</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>44896</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>44896</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>44897</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25009,7 +25009,7 @@
         <v>44902</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25071,7 +25071,7 @@
         <v>44903</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25133,7 +25133,7 @@
         <v>44909</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25190,7 +25190,7 @@
         <v>44914</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>44914</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25304,7 +25304,7 @@
         <v>44914</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25361,7 +25361,7 @@
         <v>44928</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>44937</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>44950</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>44966</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>44971</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>44977</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>44981</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>44995</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>45006</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>45006</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>45012</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25993,7 +25993,7 @@
         <v>45018</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>45019</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>45021</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45030</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45034</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26283,7 +26283,7 @@
         <v>45035</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26340,7 +26340,7 @@
         <v>45037</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         <v>45040</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26454,7 +26454,7 @@
         <v>45040</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>45041</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>45041</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>45058</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26682,7 +26682,7 @@
         <v>45062</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26739,7 +26739,7 @@
         <v>45063</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26801,7 +26801,7 @@
         <v>45063</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26863,7 +26863,7 @@
         <v>45063</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26925,7 +26925,7 @@
         <v>45063</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26987,7 +26987,7 @@
         <v>45064</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>45064</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>45064</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45070</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         <v>45072</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27297,7 +27297,7 @@
         <v>45077</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27354,7 +27354,7 @@
         <v>45077</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27411,7 +27411,7 @@
         <v>45079</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27468,7 +27468,7 @@
         <v>45082</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27525,7 +27525,7 @@
         <v>45089</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27582,7 +27582,7 @@
         <v>45092</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>45102</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>45103</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45103</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45106</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>45107</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27939,7 +27939,7 @@
         <v>45107</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27996,7 +27996,7 @@
         <v>45109</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         <v>45109</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28110,7 +28110,7 @@
         <v>45110</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28172,7 +28172,7 @@
         <v>45110</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28234,7 +28234,7 @@
         <v>45111</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28291,7 +28291,7 @@
         <v>45113</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28348,7 +28348,7 @@
         <v>45114</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28410,7 +28410,7 @@
         <v>45114</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28467,7 +28467,7 @@
         <v>45124</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28524,7 +28524,7 @@
         <v>45125</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28581,7 +28581,7 @@
         <v>45131</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28638,7 +28638,7 @@
         <v>45140</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28695,7 +28695,7 @@
         <v>45147</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28752,7 +28752,7 @@
         <v>45149</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28809,7 +28809,7 @@
         <v>45153</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         <v>45154</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>

--- a/Översikt SMEDJEBACKEN.xlsx
+++ b/Översikt SMEDJEBACKEN.xlsx
@@ -572,7 +572,7 @@
         <v>43888</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,31 +663,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/artfynd/A 10784-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/artfynd/A 10784-2020.xlsx", "A 10784-2020")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/kartor/A 10784-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/kartor/A 10784-2020.png", "A 10784-2020")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/knärot/A 10784-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/knärot/A 10784-2020.png", "A 10784-2020")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomål/A 10784-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomål/A 10784-2020.docx", "A 10784-2020")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomålsmail/A 10784-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomålsmail/A 10784-2020.docx", "A 10784-2020")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsyn/A 10784-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsyn/A 10784-2020.docx", "A 10784-2020")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsynsmail/A 10784-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsynsmail/A 10784-2020.docx", "A 10784-2020")</f>
         <v/>
       </c>
     </row>
@@ -701,7 +701,7 @@
         <v>43440</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,31 +772,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/artfynd/A 69045-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/artfynd/A 69045-2018.xlsx", "A 69045-2018")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/kartor/A 69045-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/kartor/A 69045-2018.png", "A 69045-2018")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/knärot/A 69045-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/knärot/A 69045-2018.png", "A 69045-2018")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomål/A 69045-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomål/A 69045-2018.docx", "A 69045-2018")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomålsmail/A 69045-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomålsmail/A 69045-2018.docx", "A 69045-2018")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsyn/A 69045-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsyn/A 69045-2018.docx", "A 69045-2018")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsynsmail/A 69045-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsynsmail/A 69045-2018.docx", "A 69045-2018")</f>
         <v/>
       </c>
     </row>
@@ -810,7 +810,7 @@
         <v>44441</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,27 +878,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/artfynd/A 45719-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/artfynd/A 45719-2021.xlsx", "A 45719-2021")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/kartor/A 45719-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/kartor/A 45719-2021.png", "A 45719-2021")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomål/A 45719-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomål/A 45719-2021.docx", "A 45719-2021")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomålsmail/A 45719-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomålsmail/A 45719-2021.docx", "A 45719-2021")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsyn/A 45719-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsyn/A 45719-2021.docx", "A 45719-2021")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsynsmail/A 45719-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsynsmail/A 45719-2021.docx", "A 45719-2021")</f>
         <v/>
       </c>
     </row>
@@ -912,7 +912,7 @@
         <v>44305</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,27 +977,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/artfynd/A 18375-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/artfynd/A 18375-2021.xlsx", "A 18375-2021")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/kartor/A 18375-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/kartor/A 18375-2021.png", "A 18375-2021")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomål/A 18375-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomål/A 18375-2021.docx", "A 18375-2021")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomålsmail/A 18375-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomålsmail/A 18375-2021.docx", "A 18375-2021")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsyn/A 18375-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsyn/A 18375-2021.docx", "A 18375-2021")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsynsmail/A 18375-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsynsmail/A 18375-2021.docx", "A 18375-2021")</f>
         <v/>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
         <v>44859</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1068,31 +1068,31 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/artfynd/A 49765-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/artfynd/A 49765-2022.xlsx", "A 49765-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/kartor/A 49765-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/kartor/A 49765-2022.png", "A 49765-2022")</f>
         <v/>
       </c>
       <c r="U6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/knärot/A 49765-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/knärot/A 49765-2022.png", "A 49765-2022")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomål/A 49765-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomål/A 49765-2022.docx", "A 49765-2022")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomålsmail/A 49765-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomålsmail/A 49765-2022.docx", "A 49765-2022")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsyn/A 49765-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsyn/A 49765-2022.docx", "A 49765-2022")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsynsmail/A 49765-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsynsmail/A 49765-2022.docx", "A 49765-2022")</f>
         <v/>
       </c>
     </row>
@@ -1106,7 +1106,7 @@
         <v>43893</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1165,27 +1165,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/artfynd/A 11591-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/artfynd/A 11591-2020.xlsx", "A 11591-2020")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/kartor/A 11591-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/kartor/A 11591-2020.png", "A 11591-2020")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomål/A 11591-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomål/A 11591-2020.docx", "A 11591-2020")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomålsmail/A 11591-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomålsmail/A 11591-2020.docx", "A 11591-2020")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsyn/A 11591-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsyn/A 11591-2020.docx", "A 11591-2020")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsynsmail/A 11591-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsynsmail/A 11591-2020.docx", "A 11591-2020")</f>
         <v/>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
         <v>43964</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1253,27 +1253,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/artfynd/A 22832-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/artfynd/A 22832-2020.xlsx", "A 22832-2020")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/kartor/A 22832-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/kartor/A 22832-2020.png", "A 22832-2020")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomål/A 22832-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomål/A 22832-2020.docx", "A 22832-2020")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomålsmail/A 22832-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomålsmail/A 22832-2020.docx", "A 22832-2020")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsyn/A 22832-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsyn/A 22832-2020.docx", "A 22832-2020")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsynsmail/A 22832-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsynsmail/A 22832-2020.docx", "A 22832-2020")</f>
         <v/>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
         <v>44091</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1344,27 +1344,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/artfynd/A 47051-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/artfynd/A 47051-2020.xlsx", "A 47051-2020")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/kartor/A 47051-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/kartor/A 47051-2020.png", "A 47051-2020")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomål/A 47051-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomål/A 47051-2020.docx", "A 47051-2020")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomålsmail/A 47051-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomålsmail/A 47051-2020.docx", "A 47051-2020")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsyn/A 47051-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsyn/A 47051-2020.docx", "A 47051-2020")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsynsmail/A 47051-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsynsmail/A 47051-2020.docx", "A 47051-2020")</f>
         <v/>
       </c>
     </row>
@@ -1378,7 +1378,7 @@
         <v>44321</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1430,27 +1430,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/artfynd/A 21403-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/artfynd/A 21403-2021.xlsx", "A 21403-2021")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/kartor/A 21403-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/kartor/A 21403-2021.png", "A 21403-2021")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomål/A 21403-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomål/A 21403-2021.docx", "A 21403-2021")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomålsmail/A 21403-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomålsmail/A 21403-2021.docx", "A 21403-2021")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsyn/A 21403-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsyn/A 21403-2021.docx", "A 21403-2021")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsynsmail/A 21403-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsynsmail/A 21403-2021.docx", "A 21403-2021")</f>
         <v/>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
         <v>44420</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1521,27 +1521,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/artfynd/A 40537-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/artfynd/A 40537-2021.xlsx", "A 40537-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/kartor/A 40537-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/kartor/A 40537-2021.png", "A 40537-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomål/A 40537-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomål/A 40537-2021.docx", "A 40537-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomålsmail/A 40537-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomålsmail/A 40537-2021.docx", "A 40537-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsyn/A 40537-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsyn/A 40537-2021.docx", "A 40537-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsynsmail/A 40537-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsynsmail/A 40537-2021.docx", "A 40537-2021")</f>
         <v/>
       </c>
     </row>
@@ -1555,7 +1555,7 @@
         <v>44909</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1612,27 +1612,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/artfynd/A 61289-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/artfynd/A 61289-2022.xlsx", "A 61289-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/kartor/A 61289-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/kartor/A 61289-2022.png", "A 61289-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomål/A 61289-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomål/A 61289-2022.docx", "A 61289-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomålsmail/A 61289-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomålsmail/A 61289-2022.docx", "A 61289-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsyn/A 61289-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsyn/A 61289-2022.docx", "A 61289-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsynsmail/A 61289-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsynsmail/A 61289-2022.docx", "A 61289-2022")</f>
         <v/>
       </c>
     </row>
@@ -1646,7 +1646,7 @@
         <v>45018</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1698,27 +1698,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/artfynd/A 15210-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/artfynd/A 15210-2023.xlsx", "A 15210-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/kartor/A 15210-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/kartor/A 15210-2023.png", "A 15210-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomål/A 15210-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomål/A 15210-2023.docx", "A 15210-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomålsmail/A 15210-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomålsmail/A 15210-2023.docx", "A 15210-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsyn/A 15210-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsyn/A 15210-2023.docx", "A 15210-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsynsmail/A 15210-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsynsmail/A 15210-2023.docx", "A 15210-2023")</f>
         <v/>
       </c>
     </row>
@@ -1732,7 +1732,7 @@
         <v>45064</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1789,27 +1789,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/artfynd/A 21706-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/artfynd/A 21706-2023.xlsx", "A 21706-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/kartor/A 21706-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/kartor/A 21706-2023.png", "A 21706-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomål/A 21706-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomål/A 21706-2023.docx", "A 21706-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomålsmail/A 21706-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomålsmail/A 21706-2023.docx", "A 21706-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsyn/A 21706-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsyn/A 21706-2023.docx", "A 21706-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsynsmail/A 21706-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsynsmail/A 21706-2023.docx", "A 21706-2023")</f>
         <v/>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
         <v>45127</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1875,27 +1875,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/artfynd/A 33216-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/artfynd/A 33216-2023.xlsx", "A 33216-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/kartor/A 33216-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/kartor/A 33216-2023.png", "A 33216-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomål/A 33216-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomål/A 33216-2023.docx", "A 33216-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomålsmail/A 33216-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomålsmail/A 33216-2023.docx", "A 33216-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsyn/A 33216-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsyn/A 33216-2023.docx", "A 33216-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsynsmail/A 33216-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsynsmail/A 33216-2023.docx", "A 33216-2023")</f>
         <v/>
       </c>
     </row>
@@ -1909,7 +1909,7 @@
         <v>43707</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1960,27 +1960,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/artfynd/A 43858-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/artfynd/A 43858-2019.xlsx", "A 43858-2019")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/kartor/A 43858-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/kartor/A 43858-2019.png", "A 43858-2019")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomål/A 43858-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomål/A 43858-2019.docx", "A 43858-2019")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomålsmail/A 43858-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomålsmail/A 43858-2019.docx", "A 43858-2019")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsyn/A 43858-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsyn/A 43858-2019.docx", "A 43858-2019")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsynsmail/A 43858-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsynsmail/A 43858-2019.docx", "A 43858-2019")</f>
         <v/>
       </c>
     </row>
@@ -1994,7 +1994,7 @@
         <v>43766</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2050,27 +2050,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/artfynd/A 57073-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/artfynd/A 57073-2019.xlsx", "A 57073-2019")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/kartor/A 57073-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/kartor/A 57073-2019.png", "A 57073-2019")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomål/A 57073-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomål/A 57073-2019.docx", "A 57073-2019")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomålsmail/A 57073-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomålsmail/A 57073-2019.docx", "A 57073-2019")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsyn/A 57073-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsyn/A 57073-2019.docx", "A 57073-2019")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsynsmail/A 57073-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsynsmail/A 57073-2019.docx", "A 57073-2019")</f>
         <v/>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
         <v>43780</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2135,27 +2135,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/artfynd/A 60407-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/artfynd/A 60407-2019.xlsx", "A 60407-2019")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/kartor/A 60407-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/kartor/A 60407-2019.png", "A 60407-2019")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomål/A 60407-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomål/A 60407-2019.docx", "A 60407-2019")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomålsmail/A 60407-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomålsmail/A 60407-2019.docx", "A 60407-2019")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsyn/A 60407-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsyn/A 60407-2019.docx", "A 60407-2019")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsynsmail/A 60407-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsynsmail/A 60407-2019.docx", "A 60407-2019")</f>
         <v/>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
         <v>44426</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2225,31 +2225,31 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/artfynd/A 42272-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/artfynd/A 42272-2021.xlsx", "A 42272-2021")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/kartor/A 42272-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/kartor/A 42272-2021.png", "A 42272-2021")</f>
         <v/>
       </c>
       <c r="U19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/knärot/A 42272-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/knärot/A 42272-2021.png", "A 42272-2021")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomål/A 42272-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomål/A 42272-2021.docx", "A 42272-2021")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomålsmail/A 42272-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomålsmail/A 42272-2021.docx", "A 42272-2021")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsyn/A 42272-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsyn/A 42272-2021.docx", "A 42272-2021")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsynsmail/A 42272-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsynsmail/A 42272-2021.docx", "A 42272-2021")</f>
         <v/>
       </c>
     </row>
@@ -2263,7 +2263,7 @@
         <v>44432</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2314,31 +2314,31 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/artfynd/A 43377-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/artfynd/A 43377-2021.xlsx", "A 43377-2021")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/kartor/A 43377-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/kartor/A 43377-2021.png", "A 43377-2021")</f>
         <v/>
       </c>
       <c r="U20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/knärot/A 43377-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/knärot/A 43377-2021.png", "A 43377-2021")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomål/A 43377-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomål/A 43377-2021.docx", "A 43377-2021")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomålsmail/A 43377-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomålsmail/A 43377-2021.docx", "A 43377-2021")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsyn/A 43377-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsyn/A 43377-2021.docx", "A 43377-2021")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsynsmail/A 43377-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsynsmail/A 43377-2021.docx", "A 43377-2021")</f>
         <v/>
       </c>
     </row>
@@ -2352,7 +2352,7 @@
         <v>44776</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2408,27 +2408,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/artfynd/A 31803-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/artfynd/A 31803-2022.xlsx", "A 31803-2022")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/kartor/A 31803-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/kartor/A 31803-2022.png", "A 31803-2022")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomål/A 31803-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomål/A 31803-2022.docx", "A 31803-2022")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomålsmail/A 31803-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomålsmail/A 31803-2022.docx", "A 31803-2022")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsyn/A 31803-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsyn/A 31803-2022.docx", "A 31803-2022")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsynsmail/A 31803-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsynsmail/A 31803-2022.docx", "A 31803-2022")</f>
         <v/>
       </c>
     </row>
@@ -2442,7 +2442,7 @@
         <v>44776</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2498,27 +2498,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/artfynd/A 31793-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/artfynd/A 31793-2022.xlsx", "A 31793-2022")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/kartor/A 31793-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/kartor/A 31793-2022.png", "A 31793-2022")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomål/A 31793-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomål/A 31793-2022.docx", "A 31793-2022")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomålsmail/A 31793-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomålsmail/A 31793-2022.docx", "A 31793-2022")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsyn/A 31793-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsyn/A 31793-2022.docx", "A 31793-2022")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsynsmail/A 31793-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsynsmail/A 31793-2022.docx", "A 31793-2022")</f>
         <v/>
       </c>
     </row>
@@ -2532,7 +2532,7 @@
         <v>44826</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2583,27 +2583,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/artfynd/A 41336-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/artfynd/A 41336-2022.xlsx", "A 41336-2022")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/kartor/A 41336-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/kartor/A 41336-2022.png", "A 41336-2022")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomål/A 41336-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomål/A 41336-2022.docx", "A 41336-2022")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomålsmail/A 41336-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomålsmail/A 41336-2022.docx", "A 41336-2022")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsyn/A 41336-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsyn/A 41336-2022.docx", "A 41336-2022")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsynsmail/A 41336-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsynsmail/A 41336-2022.docx", "A 41336-2022")</f>
         <v/>
       </c>
     </row>
@@ -2617,7 +2617,7 @@
         <v>45015</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2673,27 +2673,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/artfynd/A 15124-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/artfynd/A 15124-2023.xlsx", "A 15124-2023")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/kartor/A 15124-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/kartor/A 15124-2023.png", "A 15124-2023")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomål/A 15124-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomål/A 15124-2023.docx", "A 15124-2023")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomålsmail/A 15124-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomålsmail/A 15124-2023.docx", "A 15124-2023")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsyn/A 15124-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsyn/A 15124-2023.docx", "A 15124-2023")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsynsmail/A 15124-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsynsmail/A 15124-2023.docx", "A 15124-2023")</f>
         <v/>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
         <v>45064</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2763,27 +2763,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/artfynd/A 21710-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/artfynd/A 21710-2023.xlsx", "A 21710-2023")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/kartor/A 21710-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/kartor/A 21710-2023.png", "A 21710-2023")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomål/A 21710-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomål/A 21710-2023.docx", "A 21710-2023")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomålsmail/A 21710-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/klagomålsmail/A 21710-2023.docx", "A 21710-2023")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsyn/A 21710-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsyn/A 21710-2023.docx", "A 21710-2023")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsynsmail/A 21710-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SMEDJEBACKEN/tillsynsmail/A 21710-2023.docx", "A 21710-2023")</f>
         <v/>
       </c>
     </row>
@@ -2797,7 +2797,7 @@
         <v>43322</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43322</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43339</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43385</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43417</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43417</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43417</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43417</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43419</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43438</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43438</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43446</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>43451</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>43454</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>43483</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>43489</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43497</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43506</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43506</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43506</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43509</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43515</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43536</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43552</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>43560</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>43565</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>43584</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>43593</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         <v>43595</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>43607</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>43616</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43616</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43616</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43616</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43629</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43630</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43643</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43652</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43678</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43684</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>43684</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>43689</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>43693</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43693</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43697</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43698</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43700</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43700</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43703</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43703</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43703</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43704</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43706</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43726</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43726</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43731</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43731</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43732</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>43739</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>43745</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>43745</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>43745</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43754</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>43754</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>43760</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>43760</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>43766</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7239,7 +7239,7 @@
         <v>43767</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
         <v>43773</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>43773</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>43775</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>43777</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>43779</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>43780</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>43795</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>43798</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>43811</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>43822</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>43822</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>43840</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>43840</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>43842</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>43843</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>43843</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>43845</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>43846</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>43850</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>43851</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>43853</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43854</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43864</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43866</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43872</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43882</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43885</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43886</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43887</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>43887</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>43887</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>43887</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>43888</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43896</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>43902</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>43915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>43915</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>43919</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         <v>43920</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>43921</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43921</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43927</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43927</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43929</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43941</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>43942</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9988,7 +9988,7 @@
         <v>43976</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10045,7 +10045,7 @@
         <v>43977</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>43979</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>43984</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43984</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>43986</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>43997</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>43997</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>44000</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>44007</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>44008</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>44015</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>44026</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10759,7 +10759,7 @@
         <v>44034</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>44047</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         <v>44050</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>44050</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>44062</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>44062</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44062</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44064</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44066</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44075</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44075</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44076</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44076</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>44102</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>44103</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>44105</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>44105</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>44105</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44106</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>44106</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>44108</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>44108</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44115</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44115</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44115</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44115</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44116</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44124</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44124</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44124</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>44124</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44124</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>44125</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>44126</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>44126</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44126</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>44126</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>44126</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44136</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>44141</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44147</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         <v>44148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>44148</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44159</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44161</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44164</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>44164</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>44164</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44165</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44166</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44179</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>44187</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44202</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44212</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>44230</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>44230</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>44234</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         <v>44236</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>44260</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>44260</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>44261</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14391,7 +14391,7 @@
         <v>44261</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>44284</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>44291</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         <v>44298</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>44298</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>44302</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>44302</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>44302</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
         <v>44305</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14924,7 +14924,7 @@
         <v>44305</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         <v>44306</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15043,7 +15043,7 @@
         <v>44307</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>44316</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>44316</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15219,7 +15219,7 @@
         <v>44319</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15281,7 +15281,7 @@
         <v>44321</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44321</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>44321</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44333</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>44342</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44342</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15648,7 +15648,7 @@
         <v>44354</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44354</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44355</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44355</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44357</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>44390</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16010,7 +16010,7 @@
         <v>44390</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>44403</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>44410</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44410</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44410</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44410</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44414</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44414</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44414</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44414</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44414</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44417</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44417</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44420</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>44420</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44424</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44426</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>44427</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>44431</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44431</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>44432</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>44434</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44434</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>44440</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17393,7 +17393,7 @@
         <v>44442</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44442</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17517,7 +17517,7 @@
         <v>44442</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44442</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44449</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44449</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>44453</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17822,7 +17822,7 @@
         <v>44455</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>44461</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17941,7 +17941,7 @@
         <v>44462</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18003,7 +18003,7 @@
         <v>44466</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44469</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44473</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44474</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44475</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>44475</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>44475</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>44476</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>44477</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>44477</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18608,7 +18608,7 @@
         <v>44482</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18670,7 +18670,7 @@
         <v>44482</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18732,7 +18732,7 @@
         <v>44482</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>44494</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18856,7 +18856,7 @@
         <v>44496</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
         <v>44496</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18970,7 +18970,7 @@
         <v>44496</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>44496</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19084,7 +19084,7 @@
         <v>44496</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>44496</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>44496</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>44503</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19312,7 +19312,7 @@
         <v>44508</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19374,7 +19374,7 @@
         <v>44508</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44515</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44525</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44530</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>44531</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44531</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44537</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>44539</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44563</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44563</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44563</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44566</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20093,7 +20093,7 @@
         <v>44566</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         <v>44568</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20212,7 +20212,7 @@
         <v>44571</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20269,7 +20269,7 @@
         <v>44574</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20326,7 +20326,7 @@
         <v>44581</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>44604</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>44608</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>44617</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>44623</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>44630</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>44630</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>44662</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>44666</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>44684</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20906,7 +20906,7 @@
         <v>44686</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20963,7 +20963,7 @@
         <v>44700</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21020,7 +21020,7 @@
         <v>44706</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21077,7 +21077,7 @@
         <v>44713</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21134,7 +21134,7 @@
         <v>44714</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21191,7 +21191,7 @@
         <v>44718</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21248,7 +21248,7 @@
         <v>44726</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21305,7 +21305,7 @@
         <v>44727</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>44733</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         <v>44735</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21486,7 +21486,7 @@
         <v>44774</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>44776</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>44776</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>44776</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>44776</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21791,7 +21791,7 @@
         <v>44776</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21853,7 +21853,7 @@
         <v>44776</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44776</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21977,7 +21977,7 @@
         <v>44778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>44778</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44781</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>44782</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>44787</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>44787</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>44787</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>44787</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>44790</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44799</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44811</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>44811</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44813</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22738,7 +22738,7 @@
         <v>44813</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44813</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22862,7 +22862,7 @@
         <v>44813</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44820</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>44824</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23048,7 +23048,7 @@
         <v>44826</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23105,7 +23105,7 @@
         <v>44827</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23162,7 +23162,7 @@
         <v>44831</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23224,7 +23224,7 @@
         <v>44831</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23286,7 +23286,7 @@
         <v>44832</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23343,7 +23343,7 @@
         <v>44840</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>44840</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23467,7 +23467,7 @@
         <v>44840</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23529,7 +23529,7 @@
         <v>44840</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>44842</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>44845</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>44845</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23757,7 +23757,7 @@
         <v>44855</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>44855</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>44859</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>44861</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>44861</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44872</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>44873</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24181,7 +24181,7 @@
         <v>44883</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>44886</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>44886</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>44887</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>44888</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
         <v>44888</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24533,7 +24533,7 @@
         <v>44889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24590,7 +24590,7 @@
         <v>44890</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24652,7 +24652,7 @@
         <v>44890</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>44893</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>44895</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>44896</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>44896</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>44897</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25009,7 +25009,7 @@
         <v>44902</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25071,7 +25071,7 @@
         <v>44903</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25133,7 +25133,7 @@
         <v>44909</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25190,7 +25190,7 @@
         <v>44914</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>44914</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25304,7 +25304,7 @@
         <v>44914</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25361,7 +25361,7 @@
         <v>44928</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>44937</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>44950</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>44966</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>44971</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>44977</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>44981</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>44995</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>45006</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>45006</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>45012</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25993,7 +25993,7 @@
         <v>45018</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>45019</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>45021</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45030</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45034</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26283,7 +26283,7 @@
         <v>45035</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26340,7 +26340,7 @@
         <v>45037</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         <v>45040</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26454,7 +26454,7 @@
         <v>45040</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>45041</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>45041</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>45058</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26682,7 +26682,7 @@
         <v>45062</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26739,7 +26739,7 @@
         <v>45063</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26801,7 +26801,7 @@
         <v>45063</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26863,7 +26863,7 @@
         <v>45063</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26925,7 +26925,7 @@
         <v>45063</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26987,7 +26987,7 @@
         <v>45064</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>45064</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>45064</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45070</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         <v>45072</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27297,7 +27297,7 @@
         <v>45077</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27354,7 +27354,7 @@
         <v>45077</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27411,7 +27411,7 @@
         <v>45079</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27468,7 +27468,7 @@
         <v>45082</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27525,7 +27525,7 @@
         <v>45089</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27582,7 +27582,7 @@
         <v>45092</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>45102</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>45103</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45103</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45106</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>45107</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27939,7 +27939,7 @@
         <v>45107</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27996,7 +27996,7 @@
         <v>45109</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         <v>45109</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28110,7 +28110,7 @@
         <v>45110</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28172,7 +28172,7 @@
         <v>45110</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28234,7 +28234,7 @@
         <v>45111</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28291,7 +28291,7 @@
         <v>45113</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28348,7 +28348,7 @@
         <v>45114</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28410,7 +28410,7 @@
         <v>45114</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28467,7 +28467,7 @@
         <v>45124</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28524,7 +28524,7 @@
         <v>45125</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28581,7 +28581,7 @@
         <v>45131</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28638,7 +28638,7 @@
         <v>45140</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28695,7 +28695,7 @@
         <v>45147</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28752,7 +28752,7 @@
         <v>45149</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28809,7 +28809,7 @@
         <v>45153</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         <v>45154</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>

--- a/Översikt SMEDJEBACKEN.xlsx
+++ b/Översikt SMEDJEBACKEN.xlsx
@@ -572,7 +572,7 @@
         <v>43888</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>43440</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>44441</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         <v>44305</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44859</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>43893</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>43964</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44091</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>44321</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>44420</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>44909</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>45018</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>45064</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>45127</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43707</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>43766</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43780</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>44426</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44432</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44776</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>44776</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>44826</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>45015</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>45064</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43322</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43322</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43339</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43385</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43417</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43417</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43417</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43417</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43419</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43438</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43438</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43446</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>43451</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>43454</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>43483</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>43489</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43497</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43506</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43506</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43506</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43509</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43515</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43536</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43552</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>43560</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>43565</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>43584</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>43593</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         <v>43595</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>43607</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>43616</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43616</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43616</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43616</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43629</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43630</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43643</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43652</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43678</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43684</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>43684</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>43689</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>43693</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43693</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43697</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43698</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43700</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43700</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43703</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43703</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43703</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43704</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43706</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43726</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43726</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43731</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43731</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43732</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>43739</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>43745</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>43745</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>43745</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43754</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>43754</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>43760</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>43760</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>43766</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7239,7 +7239,7 @@
         <v>43767</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
         <v>43773</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>43773</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>43775</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>43777</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>43779</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>43780</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>43795</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>43798</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>43811</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>43822</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>43822</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>43840</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>43840</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>43842</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>43843</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>43843</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>43845</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>43846</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>43850</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>43851</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>43853</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43854</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43864</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43866</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43872</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43882</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43885</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43886</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43887</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>43887</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>43887</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>43887</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>43888</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43896</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>43902</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>43915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>43915</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>43919</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         <v>43920</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>43921</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43921</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43927</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43927</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43929</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43941</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>43942</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9988,7 +9988,7 @@
         <v>43976</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10045,7 +10045,7 @@
         <v>43977</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>43979</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>43984</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43984</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>43986</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>43997</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>43997</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>44000</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>44007</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>44008</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>44015</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>44026</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10759,7 +10759,7 @@
         <v>44034</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>44047</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         <v>44050</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>44050</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>44062</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>44062</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44062</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44064</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44066</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44075</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44075</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44076</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44076</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>44102</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>44103</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>44105</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>44105</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>44105</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44106</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>44106</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>44108</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>44108</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44115</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44115</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44115</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44115</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44116</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44124</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44124</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44124</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>44124</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44124</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>44125</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>44126</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>44126</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44126</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>44126</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>44126</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44136</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>44141</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44147</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         <v>44148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>44148</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44159</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44161</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44164</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>44164</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>44164</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44165</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44166</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44179</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>44187</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44202</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44212</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>44230</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>44230</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>44234</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         <v>44236</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>44260</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>44260</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>44261</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14391,7 +14391,7 @@
         <v>44261</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>44284</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>44291</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         <v>44298</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>44298</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>44302</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>44302</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>44302</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
         <v>44305</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14924,7 +14924,7 @@
         <v>44305</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         <v>44306</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15043,7 +15043,7 @@
         <v>44307</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>44316</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>44316</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15219,7 +15219,7 @@
         <v>44319</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15281,7 +15281,7 @@
         <v>44321</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44321</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>44321</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44333</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>44342</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44342</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15648,7 +15648,7 @@
         <v>44354</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44354</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44355</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44355</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44357</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>44390</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16010,7 +16010,7 @@
         <v>44390</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>44403</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>44410</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44410</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44410</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44410</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44414</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44414</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44414</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44414</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44414</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44417</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44417</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44420</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>44420</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44424</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44426</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>44427</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>44431</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44431</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>44432</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>44434</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44434</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>44440</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17393,7 +17393,7 @@
         <v>44442</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44442</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17517,7 +17517,7 @@
         <v>44442</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44442</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44449</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44449</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>44453</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17822,7 +17822,7 @@
         <v>44455</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>44461</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17941,7 +17941,7 @@
         <v>44462</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18003,7 +18003,7 @@
         <v>44466</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44469</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44473</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44474</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44475</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>44475</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>44475</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>44476</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>44477</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>44477</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18608,7 +18608,7 @@
         <v>44482</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18670,7 +18670,7 @@
         <v>44482</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18732,7 +18732,7 @@
         <v>44482</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>44494</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18856,7 +18856,7 @@
         <v>44496</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
         <v>44496</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18970,7 +18970,7 @@
         <v>44496</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>44496</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19084,7 +19084,7 @@
         <v>44496</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>44496</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>44496</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>44503</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19312,7 +19312,7 @@
         <v>44508</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19374,7 +19374,7 @@
         <v>44508</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44515</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44525</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44530</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>44531</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44531</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44537</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>44539</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44563</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44563</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44563</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44566</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20093,7 +20093,7 @@
         <v>44566</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         <v>44568</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20212,7 +20212,7 @@
         <v>44571</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20269,7 +20269,7 @@
         <v>44574</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20326,7 +20326,7 @@
         <v>44581</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>44604</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>44608</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>44617</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>44623</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>44630</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>44630</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>44662</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>44666</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>44684</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20906,7 +20906,7 @@
         <v>44686</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20963,7 +20963,7 @@
         <v>44700</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21020,7 +21020,7 @@
         <v>44706</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21077,7 +21077,7 @@
         <v>44713</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21134,7 +21134,7 @@
         <v>44714</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21191,7 +21191,7 @@
         <v>44718</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21248,7 +21248,7 @@
         <v>44726</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21305,7 +21305,7 @@
         <v>44727</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>44733</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         <v>44735</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21486,7 +21486,7 @@
         <v>44774</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>44776</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>44776</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>44776</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>44776</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21791,7 +21791,7 @@
         <v>44776</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21853,7 +21853,7 @@
         <v>44776</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44776</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21977,7 +21977,7 @@
         <v>44778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>44778</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44781</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>44782</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>44787</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>44787</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>44787</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>44787</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>44790</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44799</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44811</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>44811</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44813</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22738,7 +22738,7 @@
         <v>44813</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44813</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22862,7 +22862,7 @@
         <v>44813</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44820</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>44824</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23048,7 +23048,7 @@
         <v>44826</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23105,7 +23105,7 @@
         <v>44827</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23162,7 +23162,7 @@
         <v>44831</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23224,7 +23224,7 @@
         <v>44831</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23286,7 +23286,7 @@
         <v>44832</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23343,7 +23343,7 @@
         <v>44840</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>44840</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23467,7 +23467,7 @@
         <v>44840</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23529,7 +23529,7 @@
         <v>44840</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>44842</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>44845</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>44845</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23757,7 +23757,7 @@
         <v>44855</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>44855</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>44859</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>44861</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>44861</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44872</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>44873</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24181,7 +24181,7 @@
         <v>44883</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>44886</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>44886</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>44887</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>44888</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
         <v>44888</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24533,7 +24533,7 @@
         <v>44889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24590,7 +24590,7 @@
         <v>44890</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24652,7 +24652,7 @@
         <v>44890</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>44893</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>44895</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>44896</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>44896</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>44897</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25009,7 +25009,7 @@
         <v>44902</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25071,7 +25071,7 @@
         <v>44903</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25133,7 +25133,7 @@
         <v>44909</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25190,7 +25190,7 @@
         <v>44914</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>44914</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25304,7 +25304,7 @@
         <v>44914</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25361,7 +25361,7 @@
         <v>44928</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>44937</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>44950</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>44966</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>44971</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>44977</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>44981</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>44995</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>45006</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>45006</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>45012</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25993,7 +25993,7 @@
         <v>45018</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>45019</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>45021</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45030</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45034</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26283,7 +26283,7 @@
         <v>45035</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26340,7 +26340,7 @@
         <v>45037</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         <v>45040</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26454,7 +26454,7 @@
         <v>45040</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>45041</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>45041</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>45058</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26682,7 +26682,7 @@
         <v>45062</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26739,7 +26739,7 @@
         <v>45063</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26801,7 +26801,7 @@
         <v>45063</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26863,7 +26863,7 @@
         <v>45063</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26925,7 +26925,7 @@
         <v>45063</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26987,7 +26987,7 @@
         <v>45064</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>45064</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>45064</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45070</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         <v>45072</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27297,7 +27297,7 @@
         <v>45077</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27354,7 +27354,7 @@
         <v>45077</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27411,7 +27411,7 @@
         <v>45079</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27468,7 +27468,7 @@
         <v>45082</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27525,7 +27525,7 @@
         <v>45089</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27582,7 +27582,7 @@
         <v>45092</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>45102</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>45103</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45103</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45106</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>45107</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27939,7 +27939,7 @@
         <v>45107</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27996,7 +27996,7 @@
         <v>45109</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         <v>45109</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28110,7 +28110,7 @@
         <v>45110</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28172,7 +28172,7 @@
         <v>45110</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28234,7 +28234,7 @@
         <v>45111</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28291,7 +28291,7 @@
         <v>45113</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28348,7 +28348,7 @@
         <v>45114</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28410,7 +28410,7 @@
         <v>45114</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28467,7 +28467,7 @@
         <v>45124</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28524,7 +28524,7 @@
         <v>45125</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28581,7 +28581,7 @@
         <v>45131</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28638,7 +28638,7 @@
         <v>45140</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28695,7 +28695,7 @@
         <v>45147</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28752,7 +28752,7 @@
         <v>45149</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28809,7 +28809,7 @@
         <v>45153</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         <v>45154</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>

--- a/Översikt SMEDJEBACKEN.xlsx
+++ b/Översikt SMEDJEBACKEN.xlsx
@@ -572,7 +572,7 @@
         <v>43888</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>43440</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>44441</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         <v>44305</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44859</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>43893</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>43964</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44091</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>44321</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>44420</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>44909</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>45018</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>45064</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>45127</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43707</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>43766</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43780</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>44426</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44432</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44776</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>44776</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>44826</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>45015</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>45064</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43322</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43322</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43339</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43385</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43417</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43417</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43417</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43417</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43419</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43438</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43438</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43446</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>43451</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>43454</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>43483</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>43489</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43497</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43506</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43506</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43506</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43509</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43515</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43536</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43552</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>43560</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>43565</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>43584</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>43593</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         <v>43595</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>43607</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>43616</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43616</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43616</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43616</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43629</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43630</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43643</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43652</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43678</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43684</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>43684</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>43689</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>43693</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43693</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43697</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43698</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43700</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43700</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43703</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43703</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43703</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43704</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43706</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43726</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43726</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43731</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43731</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43732</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>43739</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>43745</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>43745</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>43745</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43754</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>43754</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>43760</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>43760</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>43766</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7239,7 +7239,7 @@
         <v>43767</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
         <v>43773</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>43773</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>43775</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>43777</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>43779</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>43780</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>43795</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>43798</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>43811</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>43822</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>43822</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>43840</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>43840</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>43842</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>43843</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>43843</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>43845</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>43846</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>43850</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>43851</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>43853</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43854</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43864</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43866</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43872</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43882</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43885</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43886</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43887</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>43887</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>43887</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>43887</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>43888</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43896</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>43902</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>43915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>43915</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>43919</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         <v>43920</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>43921</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43921</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43927</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43927</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43929</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43941</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>43942</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9988,7 +9988,7 @@
         <v>43976</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10045,7 +10045,7 @@
         <v>43977</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>43979</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>43984</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43984</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>43986</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>43997</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>43997</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>44000</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>44007</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>44008</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>44015</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>44026</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10759,7 +10759,7 @@
         <v>44034</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>44047</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         <v>44050</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>44050</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>44062</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>44062</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44062</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44064</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44066</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44075</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44075</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44076</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44076</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>44102</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>44103</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>44105</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>44105</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>44105</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44106</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>44106</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>44108</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>44108</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44115</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44115</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44115</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44115</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44116</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44124</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44124</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44124</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>44124</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44124</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>44125</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>44126</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>44126</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44126</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>44126</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>44126</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44136</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>44141</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44147</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         <v>44148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>44148</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44159</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44161</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44164</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>44164</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>44164</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44165</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44166</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44179</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>44187</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44202</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44212</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>44230</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>44230</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>44234</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         <v>44236</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>44260</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>44260</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>44261</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14391,7 +14391,7 @@
         <v>44261</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>44284</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>44291</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         <v>44298</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>44298</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>44302</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>44302</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>44302</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
         <v>44305</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14924,7 +14924,7 @@
         <v>44305</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         <v>44306</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15043,7 +15043,7 @@
         <v>44307</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>44316</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>44316</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15219,7 +15219,7 @@
         <v>44319</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15281,7 +15281,7 @@
         <v>44321</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44321</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>44321</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44333</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>44342</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44342</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15648,7 +15648,7 @@
         <v>44354</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44354</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44355</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44355</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44357</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>44390</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16010,7 +16010,7 @@
         <v>44390</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>44403</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>44410</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44410</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44410</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44410</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44414</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44414</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44414</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44414</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44414</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44417</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44417</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44420</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>44420</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44424</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44426</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>44427</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>44431</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44431</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>44432</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>44434</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44434</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>44440</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17393,7 +17393,7 @@
         <v>44442</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44442</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17517,7 +17517,7 @@
         <v>44442</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44442</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44449</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44449</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>44453</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17822,7 +17822,7 @@
         <v>44455</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>44461</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17941,7 +17941,7 @@
         <v>44462</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18003,7 +18003,7 @@
         <v>44466</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44469</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44473</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44474</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44475</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>44475</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>44475</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>44476</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>44477</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>44477</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18608,7 +18608,7 @@
         <v>44482</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18670,7 +18670,7 @@
         <v>44482</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18732,7 +18732,7 @@
         <v>44482</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>44494</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18856,7 +18856,7 @@
         <v>44496</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
         <v>44496</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18970,7 +18970,7 @@
         <v>44496</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>44496</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19084,7 +19084,7 @@
         <v>44496</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>44496</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>44496</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>44503</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19312,7 +19312,7 @@
         <v>44508</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19374,7 +19374,7 @@
         <v>44508</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44515</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44525</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44530</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>44531</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44531</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44537</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>44539</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44563</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44563</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44563</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44566</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20093,7 +20093,7 @@
         <v>44566</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         <v>44568</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20212,7 +20212,7 @@
         <v>44571</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20269,7 +20269,7 @@
         <v>44574</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20326,7 +20326,7 @@
         <v>44581</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>44604</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>44608</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>44617</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>44623</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>44630</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>44630</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>44662</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>44666</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>44684</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20906,7 +20906,7 @@
         <v>44686</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20963,7 +20963,7 @@
         <v>44700</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21020,7 +21020,7 @@
         <v>44706</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21077,7 +21077,7 @@
         <v>44713</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21134,7 +21134,7 @@
         <v>44714</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21191,7 +21191,7 @@
         <v>44718</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21248,7 +21248,7 @@
         <v>44726</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21305,7 +21305,7 @@
         <v>44727</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>44733</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         <v>44735</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21486,7 +21486,7 @@
         <v>44774</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>44776</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>44776</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>44776</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>44776</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21791,7 +21791,7 @@
         <v>44776</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21853,7 +21853,7 @@
         <v>44776</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44776</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21977,7 +21977,7 @@
         <v>44778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>44778</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44781</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>44782</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>44787</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>44787</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>44787</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>44787</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>44790</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44799</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44811</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>44811</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44813</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22738,7 +22738,7 @@
         <v>44813</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44813</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22862,7 +22862,7 @@
         <v>44813</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44820</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>44824</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23048,7 +23048,7 @@
         <v>44826</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23105,7 +23105,7 @@
         <v>44827</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23162,7 +23162,7 @@
         <v>44831</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23224,7 +23224,7 @@
         <v>44831</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23286,7 +23286,7 @@
         <v>44832</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23343,7 +23343,7 @@
         <v>44840</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>44840</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23467,7 +23467,7 @@
         <v>44840</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23529,7 +23529,7 @@
         <v>44840</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>44842</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>44845</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>44845</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23757,7 +23757,7 @@
         <v>44855</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>44855</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>44859</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>44861</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>44861</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44872</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>44873</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24181,7 +24181,7 @@
         <v>44883</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>44886</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>44886</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>44887</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>44888</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
         <v>44888</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24533,7 +24533,7 @@
         <v>44889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24590,7 +24590,7 @@
         <v>44890</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24652,7 +24652,7 @@
         <v>44890</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>44893</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>44895</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>44896</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>44896</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>44897</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25009,7 +25009,7 @@
         <v>44902</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25071,7 +25071,7 @@
         <v>44903</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25133,7 +25133,7 @@
         <v>44909</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25190,7 +25190,7 @@
         <v>44914</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>44914</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25304,7 +25304,7 @@
         <v>44914</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25361,7 +25361,7 @@
         <v>44928</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>44937</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>44950</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>44966</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>44971</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>44977</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>44981</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>44995</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>45006</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>45006</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>45012</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25993,7 +25993,7 @@
         <v>45018</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>45019</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>45021</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45030</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45034</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26283,7 +26283,7 @@
         <v>45035</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26340,7 +26340,7 @@
         <v>45037</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         <v>45040</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26454,7 +26454,7 @@
         <v>45040</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>45041</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>45041</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>45058</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26682,7 +26682,7 @@
         <v>45062</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26739,7 +26739,7 @@
         <v>45063</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26801,7 +26801,7 @@
         <v>45063</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26863,7 +26863,7 @@
         <v>45063</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26925,7 +26925,7 @@
         <v>45063</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26987,7 +26987,7 @@
         <v>45064</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>45064</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>45064</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45070</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         <v>45072</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27297,7 +27297,7 @@
         <v>45077</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27354,7 +27354,7 @@
         <v>45077</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27411,7 +27411,7 @@
         <v>45079</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27468,7 +27468,7 @@
         <v>45082</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27525,7 +27525,7 @@
         <v>45089</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27582,7 +27582,7 @@
         <v>45092</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>45102</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>45103</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45103</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45106</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>45107</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27939,7 +27939,7 @@
         <v>45107</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27996,7 +27996,7 @@
         <v>45109</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         <v>45109</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28110,7 +28110,7 @@
         <v>45110</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28172,7 +28172,7 @@
         <v>45110</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28234,7 +28234,7 @@
         <v>45111</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28291,7 +28291,7 @@
         <v>45113</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28348,7 +28348,7 @@
         <v>45114</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28410,7 +28410,7 @@
         <v>45114</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28467,7 +28467,7 @@
         <v>45124</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28524,7 +28524,7 @@
         <v>45125</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28581,7 +28581,7 @@
         <v>45131</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28638,7 +28638,7 @@
         <v>45140</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28695,7 +28695,7 @@
         <v>45147</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28752,7 +28752,7 @@
         <v>45149</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28809,7 +28809,7 @@
         <v>45153</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         <v>45154</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>

--- a/Översikt SMEDJEBACKEN.xlsx
+++ b/Översikt SMEDJEBACKEN.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y468"/>
+  <dimension ref="A1:Y469"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43888</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>43440</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>44441</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         <v>44305</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44859</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>43893</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>43964</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44091</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>44321</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>44420</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>44909</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>45018</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>45064</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>45127</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43707</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>43766</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43780</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>44426</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44432</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44776</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>44776</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>44826</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>45015</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>45064</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43322</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43322</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43339</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43385</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43417</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43417</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43417</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43417</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43419</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43438</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43438</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43446</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>43451</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>43454</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>43483</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>43489</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43497</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43506</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43506</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43506</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43509</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43515</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43536</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43552</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>43560</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>43565</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>43584</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>43593</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         <v>43595</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>43607</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>43616</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43616</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43616</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43616</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43629</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43630</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43643</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43652</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43678</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43684</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>43684</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>43689</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>43693</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43693</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43697</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43698</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43700</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43700</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43703</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43703</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43703</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43704</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43706</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43726</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43726</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43731</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43731</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43732</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>43739</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>43745</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>43745</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>43745</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43754</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>43754</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>43760</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>43760</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>43766</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7239,7 +7239,7 @@
         <v>43767</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
         <v>43773</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>43773</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>43775</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>43777</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>43779</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>43780</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>43795</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>43798</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>43811</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>43822</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>43822</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>43840</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>43840</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>43842</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>43843</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>43843</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>43845</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>43846</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>43850</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>43851</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>43853</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43854</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43864</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43866</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43872</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43882</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43885</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43886</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43887</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>43887</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>43887</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>43887</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>43888</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43896</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>43902</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>43915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>43915</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>43919</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         <v>43920</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>43921</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43921</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43927</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43927</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43929</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43941</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>43942</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9988,7 +9988,7 @@
         <v>43976</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10045,7 +10045,7 @@
         <v>43977</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>43979</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>43984</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43984</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>43986</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>43997</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>43997</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>44000</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>44007</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>44008</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>44015</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>44026</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10759,7 +10759,7 @@
         <v>44034</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>44047</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         <v>44050</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>44050</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>44062</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>44062</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44062</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44064</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44066</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44075</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44075</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44076</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44076</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>44102</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>44103</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>44105</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>44105</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>44105</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44106</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>44106</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>44108</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>44108</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44115</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44115</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44115</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44115</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44116</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44124</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44124</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44124</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>44124</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44124</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>44125</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>44126</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>44126</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44126</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>44126</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>44126</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44136</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>44141</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44147</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         <v>44148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>44148</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44159</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44161</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44164</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>44164</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>44164</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44165</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44166</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44179</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>44187</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44202</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44212</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>44230</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>44230</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>44234</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         <v>44236</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>44260</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>44260</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>44261</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14391,7 +14391,7 @@
         <v>44261</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>44284</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>44291</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         <v>44298</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>44298</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>44302</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>44302</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>44302</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
         <v>44305</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14924,7 +14924,7 @@
         <v>44305</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         <v>44306</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15043,7 +15043,7 @@
         <v>44307</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>44316</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>44316</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15219,7 +15219,7 @@
         <v>44319</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15281,7 +15281,7 @@
         <v>44321</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44321</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>44321</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44333</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>44342</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44342</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15648,7 +15648,7 @@
         <v>44354</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44354</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44355</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44355</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44357</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>44390</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16010,7 +16010,7 @@
         <v>44390</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>44403</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>44410</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44410</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44410</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44410</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44414</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44414</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44414</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44414</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44414</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44417</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44417</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44420</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>44420</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44424</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44426</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>44427</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>44431</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44431</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>44432</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>44434</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44434</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>44440</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17393,7 +17393,7 @@
         <v>44442</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44442</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17517,7 +17517,7 @@
         <v>44442</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44442</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44449</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44449</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>44453</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17822,7 +17822,7 @@
         <v>44455</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>44461</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17941,7 +17941,7 @@
         <v>44462</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18003,7 +18003,7 @@
         <v>44466</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44469</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44473</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44474</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44475</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>44475</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>44475</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>44476</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>44477</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>44477</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18608,7 +18608,7 @@
         <v>44482</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18670,7 +18670,7 @@
         <v>44482</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18732,7 +18732,7 @@
         <v>44482</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>44494</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18856,7 +18856,7 @@
         <v>44496</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
         <v>44496</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18970,7 +18970,7 @@
         <v>44496</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>44496</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19084,7 +19084,7 @@
         <v>44496</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>44496</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>44496</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>44503</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19312,7 +19312,7 @@
         <v>44508</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19374,7 +19374,7 @@
         <v>44508</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44515</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44525</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44530</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>44531</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44531</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44537</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>44539</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44563</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44563</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44563</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44566</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20093,7 +20093,7 @@
         <v>44566</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         <v>44568</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20212,7 +20212,7 @@
         <v>44571</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20269,7 +20269,7 @@
         <v>44574</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20326,7 +20326,7 @@
         <v>44581</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>44604</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>44608</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>44617</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>44623</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>44630</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>44630</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>44662</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>44666</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>44684</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20906,7 +20906,7 @@
         <v>44686</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20963,7 +20963,7 @@
         <v>44700</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21020,7 +21020,7 @@
         <v>44706</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21077,7 +21077,7 @@
         <v>44713</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21134,7 +21134,7 @@
         <v>44714</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21191,7 +21191,7 @@
         <v>44718</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21248,7 +21248,7 @@
         <v>44726</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21305,7 +21305,7 @@
         <v>44727</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>44733</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         <v>44735</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21486,7 +21486,7 @@
         <v>44774</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>44776</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>44776</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>44776</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>44776</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21791,7 +21791,7 @@
         <v>44776</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21853,7 +21853,7 @@
         <v>44776</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44776</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21977,7 +21977,7 @@
         <v>44778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>44778</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44781</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>44782</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>44787</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>44787</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>44787</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>44787</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>44790</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44799</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44811</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>44811</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44813</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22738,7 +22738,7 @@
         <v>44813</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44813</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22862,7 +22862,7 @@
         <v>44813</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44820</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>44824</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23048,7 +23048,7 @@
         <v>44826</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23105,7 +23105,7 @@
         <v>44827</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23162,7 +23162,7 @@
         <v>44831</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23224,7 +23224,7 @@
         <v>44831</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23286,7 +23286,7 @@
         <v>44832</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23343,7 +23343,7 @@
         <v>44840</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>44840</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23467,7 +23467,7 @@
         <v>44840</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23529,7 +23529,7 @@
         <v>44840</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>44842</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>44845</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>44845</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23757,7 +23757,7 @@
         <v>44855</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>44855</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>44859</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>44861</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>44861</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44872</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>44873</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24181,7 +24181,7 @@
         <v>44883</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>44886</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>44886</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>44887</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>44888</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
         <v>44888</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24533,7 +24533,7 @@
         <v>44889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24590,7 +24590,7 @@
         <v>44890</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24652,7 +24652,7 @@
         <v>44890</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>44893</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>44895</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>44896</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>44896</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>44897</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25009,7 +25009,7 @@
         <v>44902</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25071,7 +25071,7 @@
         <v>44903</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25133,7 +25133,7 @@
         <v>44909</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25190,7 +25190,7 @@
         <v>44914</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>44914</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25304,7 +25304,7 @@
         <v>44914</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25361,7 +25361,7 @@
         <v>44928</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>44937</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>44950</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>44966</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>44971</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>44977</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>44981</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>44995</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>45006</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>45006</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>45012</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25993,7 +25993,7 @@
         <v>45018</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>45019</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>45021</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45030</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45034</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26283,7 +26283,7 @@
         <v>45035</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26340,7 +26340,7 @@
         <v>45037</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         <v>45040</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26454,7 +26454,7 @@
         <v>45040</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>45041</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>45041</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>45058</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26682,7 +26682,7 @@
         <v>45062</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26739,7 +26739,7 @@
         <v>45063</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26801,7 +26801,7 @@
         <v>45063</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26863,7 +26863,7 @@
         <v>45063</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26925,7 +26925,7 @@
         <v>45063</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26987,7 +26987,7 @@
         <v>45064</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>45064</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>45064</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45070</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         <v>45072</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27297,7 +27297,7 @@
         <v>45077</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27354,7 +27354,7 @@
         <v>45077</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27411,7 +27411,7 @@
         <v>45079</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27468,7 +27468,7 @@
         <v>45082</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27525,7 +27525,7 @@
         <v>45089</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27582,7 +27582,7 @@
         <v>45092</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>45102</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>45103</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45103</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45106</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>45107</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27939,7 +27939,7 @@
         <v>45107</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27996,7 +27996,7 @@
         <v>45109</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         <v>45109</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28110,7 +28110,7 @@
         <v>45110</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28172,7 +28172,7 @@
         <v>45110</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28234,7 +28234,7 @@
         <v>45111</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28291,7 +28291,7 @@
         <v>45113</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28348,7 +28348,7 @@
         <v>45114</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28410,7 +28410,7 @@
         <v>45114</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28467,7 +28467,7 @@
         <v>45124</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28524,7 +28524,7 @@
         <v>45125</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28581,7 +28581,7 @@
         <v>45131</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28638,7 +28638,7 @@
         <v>45140</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28695,7 +28695,7 @@
         <v>45147</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28752,7 +28752,7 @@
         <v>45149</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28809,7 +28809,7 @@
         <v>45153</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28856,7 +28856,7 @@
       </c>
       <c r="R467" s="2" t="inlineStr"/>
     </row>
-    <row r="468">
+    <row r="468" ht="15" customHeight="1">
       <c r="A468" t="inlineStr">
         <is>
           <t>A 37024-2023</t>
@@ -28866,7 +28866,7 @@
         <v>45154</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28912,6 +28912,68 @@
         <v>0</v>
       </c>
       <c r="R468" s="2" t="inlineStr"/>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>A 44034-2023</t>
+        </is>
+      </c>
+      <c r="B469" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C469" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>SMEDJEBACKEN</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G469" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H469" t="n">
+        <v>0</v>
+      </c>
+      <c r="I469" t="n">
+        <v>0</v>
+      </c>
+      <c r="J469" t="n">
+        <v>0</v>
+      </c>
+      <c r="K469" t="n">
+        <v>0</v>
+      </c>
+      <c r="L469" t="n">
+        <v>0</v>
+      </c>
+      <c r="M469" t="n">
+        <v>0</v>
+      </c>
+      <c r="N469" t="n">
+        <v>0</v>
+      </c>
+      <c r="O469" t="n">
+        <v>0</v>
+      </c>
+      <c r="P469" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q469" t="n">
+        <v>0</v>
+      </c>
+      <c r="R469" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt SMEDJEBACKEN.xlsx
+++ b/Översikt SMEDJEBACKEN.xlsx
@@ -572,7 +572,7 @@
         <v>43888</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>43440</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>44441</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         <v>44305</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44859</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>43893</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>43964</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44091</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>44321</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>44420</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>44909</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>45018</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>45064</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>45127</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43707</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>43766</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43780</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>44426</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44432</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44776</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>44776</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>44826</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>45015</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>45064</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43322</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43322</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43339</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43385</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43417</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43417</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43417</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43417</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43419</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43438</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43438</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43446</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>43451</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>43454</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>43483</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>43489</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43497</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43506</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43506</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43506</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43509</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43515</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43536</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43552</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>43560</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>43565</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>43584</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>43593</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         <v>43595</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>43607</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>43616</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43616</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43616</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43616</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43629</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43630</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43643</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43652</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43678</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43684</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>43684</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>43689</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>43693</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43693</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43697</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43698</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43700</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43700</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43703</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43703</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43703</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43704</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43706</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43726</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43726</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43731</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43731</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43732</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>43739</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>43745</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>43745</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>43745</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43754</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>43754</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>43760</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>43760</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>43766</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7239,7 +7239,7 @@
         <v>43767</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
         <v>43773</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>43773</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>43775</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>43777</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>43779</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>43780</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>43795</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>43798</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>43811</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>43822</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>43822</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>43840</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>43840</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>43842</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>43843</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>43843</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>43845</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>43846</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>43850</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>43851</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>43853</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43854</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43864</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43866</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43872</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43882</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43885</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43886</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43887</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>43887</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>43887</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>43887</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>43888</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43896</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>43902</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>43915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>43915</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>43919</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         <v>43920</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>43921</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43921</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43927</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43927</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43929</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43941</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>43942</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9988,7 +9988,7 @@
         <v>43976</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10045,7 +10045,7 @@
         <v>43977</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>43979</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>43984</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43984</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>43986</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>43997</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>43997</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>44000</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>44007</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>44008</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>44015</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>44026</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10759,7 +10759,7 @@
         <v>44034</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>44047</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         <v>44050</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>44050</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>44062</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>44062</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44062</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44064</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44066</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44075</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44075</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44076</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44076</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>44102</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>44103</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>44105</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>44105</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>44105</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44106</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>44106</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>44108</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>44108</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44115</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44115</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44115</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44115</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44116</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44124</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44124</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44124</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>44124</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44124</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>44125</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>44126</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>44126</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44126</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>44126</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>44126</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44136</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>44141</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44147</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         <v>44148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>44148</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44159</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44161</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44164</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>44164</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>44164</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44165</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44166</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44179</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>44187</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44202</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44212</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>44230</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>44230</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>44234</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         <v>44236</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>44260</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>44260</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>44261</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14391,7 +14391,7 @@
         <v>44261</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>44284</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>44291</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         <v>44298</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>44298</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>44302</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>44302</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>44302</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
         <v>44305</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14924,7 +14924,7 @@
         <v>44305</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         <v>44306</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15043,7 +15043,7 @@
         <v>44307</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>44316</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>44316</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15219,7 +15219,7 @@
         <v>44319</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15281,7 +15281,7 @@
         <v>44321</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44321</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>44321</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44333</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>44342</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44342</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15648,7 +15648,7 @@
         <v>44354</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44354</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44355</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44355</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44357</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>44390</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16010,7 +16010,7 @@
         <v>44390</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>44403</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>44410</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44410</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44410</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44410</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44414</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44414</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44414</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44414</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44414</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44417</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44417</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44420</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>44420</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44424</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44426</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>44427</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>44431</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44431</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>44432</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>44434</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44434</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>44440</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17393,7 +17393,7 @@
         <v>44442</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44442</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17517,7 +17517,7 @@
         <v>44442</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44442</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44449</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44449</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>44453</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17822,7 +17822,7 @@
         <v>44455</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>44461</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17941,7 +17941,7 @@
         <v>44462</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18003,7 +18003,7 @@
         <v>44466</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44469</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44473</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44474</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44475</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>44475</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>44475</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>44476</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>44477</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>44477</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18608,7 +18608,7 @@
         <v>44482</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18670,7 +18670,7 @@
         <v>44482</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18732,7 +18732,7 @@
         <v>44482</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>44494</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18856,7 +18856,7 @@
         <v>44496</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
         <v>44496</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18970,7 +18970,7 @@
         <v>44496</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>44496</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19084,7 +19084,7 @@
         <v>44496</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>44496</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>44496</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>44503</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19312,7 +19312,7 @@
         <v>44508</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19374,7 +19374,7 @@
         <v>44508</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44515</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44525</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44530</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>44531</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44531</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44537</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>44539</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44563</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44563</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44563</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44566</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20093,7 +20093,7 @@
         <v>44566</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         <v>44568</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20212,7 +20212,7 @@
         <v>44571</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20269,7 +20269,7 @@
         <v>44574</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20326,7 +20326,7 @@
         <v>44581</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>44604</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>44608</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>44617</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>44623</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>44630</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>44630</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>44662</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>44666</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>44684</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20906,7 +20906,7 @@
         <v>44686</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20963,7 +20963,7 @@
         <v>44700</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21020,7 +21020,7 @@
         <v>44706</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21077,7 +21077,7 @@
         <v>44713</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21134,7 +21134,7 @@
         <v>44714</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21191,7 +21191,7 @@
         <v>44718</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21248,7 +21248,7 @@
         <v>44726</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21305,7 +21305,7 @@
         <v>44727</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>44733</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         <v>44735</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21486,7 +21486,7 @@
         <v>44774</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>44776</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>44776</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>44776</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>44776</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21791,7 +21791,7 @@
         <v>44776</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21853,7 +21853,7 @@
         <v>44776</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44776</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21977,7 +21977,7 @@
         <v>44778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>44778</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44781</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>44782</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>44787</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>44787</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>44787</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>44787</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>44790</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44799</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44811</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>44811</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44813</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22738,7 +22738,7 @@
         <v>44813</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44813</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22862,7 +22862,7 @@
         <v>44813</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44820</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>44824</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23048,7 +23048,7 @@
         <v>44826</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23105,7 +23105,7 @@
         <v>44827</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23162,7 +23162,7 @@
         <v>44831</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23224,7 +23224,7 @@
         <v>44831</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23286,7 +23286,7 @@
         <v>44832</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23343,7 +23343,7 @@
         <v>44840</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>44840</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23467,7 +23467,7 @@
         <v>44840</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23529,7 +23529,7 @@
         <v>44840</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>44842</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>44845</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>44845</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23757,7 +23757,7 @@
         <v>44855</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>44855</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>44859</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>44861</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>44861</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44872</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>44873</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24181,7 +24181,7 @@
         <v>44883</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>44886</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>44886</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>44887</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>44888</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
         <v>44888</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24533,7 +24533,7 @@
         <v>44889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24590,7 +24590,7 @@
         <v>44890</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24652,7 +24652,7 @@
         <v>44890</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>44893</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>44895</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>44896</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>44896</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>44897</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25009,7 +25009,7 @@
         <v>44902</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25071,7 +25071,7 @@
         <v>44903</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25133,7 +25133,7 @@
         <v>44909</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25190,7 +25190,7 @@
         <v>44914</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>44914</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25304,7 +25304,7 @@
         <v>44914</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25361,7 +25361,7 @@
         <v>44928</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>44937</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>44950</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>44966</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>44971</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>44977</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>44981</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>44995</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>45006</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>45006</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>45012</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25993,7 +25993,7 @@
         <v>45018</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>45019</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>45021</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45030</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45034</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26283,7 +26283,7 @@
         <v>45035</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26340,7 +26340,7 @@
         <v>45037</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         <v>45040</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26454,7 +26454,7 @@
         <v>45040</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>45041</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>45041</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>45058</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26682,7 +26682,7 @@
         <v>45062</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26739,7 +26739,7 @@
         <v>45063</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26801,7 +26801,7 @@
         <v>45063</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26863,7 +26863,7 @@
         <v>45063</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26925,7 +26925,7 @@
         <v>45063</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26987,7 +26987,7 @@
         <v>45064</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>45064</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>45064</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45070</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         <v>45072</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27297,7 +27297,7 @@
         <v>45077</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27354,7 +27354,7 @@
         <v>45077</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27411,7 +27411,7 @@
         <v>45079</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27468,7 +27468,7 @@
         <v>45082</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27525,7 +27525,7 @@
         <v>45089</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27582,7 +27582,7 @@
         <v>45092</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>45102</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>45103</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45103</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45106</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>45107</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27939,7 +27939,7 @@
         <v>45107</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27996,7 +27996,7 @@
         <v>45109</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         <v>45109</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28110,7 +28110,7 @@
         <v>45110</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28172,7 +28172,7 @@
         <v>45110</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28234,7 +28234,7 @@
         <v>45111</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28291,7 +28291,7 @@
         <v>45113</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28348,7 +28348,7 @@
         <v>45114</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28410,7 +28410,7 @@
         <v>45114</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28467,7 +28467,7 @@
         <v>45124</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28524,7 +28524,7 @@
         <v>45125</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28581,7 +28581,7 @@
         <v>45131</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28638,7 +28638,7 @@
         <v>45140</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28695,7 +28695,7 @@
         <v>45147</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28752,7 +28752,7 @@
         <v>45149</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28809,7 +28809,7 @@
         <v>45153</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         <v>45154</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28923,7 +28923,7 @@
         <v>45188</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>

--- a/Översikt SMEDJEBACKEN.xlsx
+++ b/Översikt SMEDJEBACKEN.xlsx
@@ -572,7 +572,7 @@
         <v>43888</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>43440</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>44441</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         <v>44305</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44859</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>43893</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>43964</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44091</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>44321</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>44420</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>44909</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>45018</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>45064</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>45127</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43707</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>43766</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43780</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>44426</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44432</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44776</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>44776</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>44826</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>45015</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>45064</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43322</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43322</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43339</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43385</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43417</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43417</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43417</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43417</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43419</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43438</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43438</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43446</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>43451</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>43454</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>43483</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>43489</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43497</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43506</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43506</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43506</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43509</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43515</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43536</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43552</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>43560</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>43565</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>43584</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>43593</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         <v>43595</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>43607</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>43616</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43616</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43616</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43616</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43629</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43630</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43643</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43652</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43678</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43684</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>43684</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>43689</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>43693</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43693</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43697</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43698</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43700</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43700</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43703</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43703</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43703</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43704</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43706</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43726</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43726</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43731</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43731</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43732</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>43739</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>43745</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>43745</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>43745</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43754</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>43754</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>43760</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>43760</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>43766</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7239,7 +7239,7 @@
         <v>43767</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
         <v>43773</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>43773</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>43775</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>43777</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>43779</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>43780</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>43795</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>43798</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>43811</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>43822</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>43822</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>43840</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>43840</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>43842</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>43843</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>43843</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>43845</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>43846</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>43850</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>43851</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>43853</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43854</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43864</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43866</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43872</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43882</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43885</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43886</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43887</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>43887</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>43887</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>43887</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>43888</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43896</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>43902</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>43915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>43915</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>43919</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         <v>43920</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>43921</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43921</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43927</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43927</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43929</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43941</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>43942</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9988,7 +9988,7 @@
         <v>43976</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10045,7 +10045,7 @@
         <v>43977</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>43979</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>43984</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43984</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>43986</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>43997</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>43997</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>44000</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>44007</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>44008</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>44015</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>44026</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10759,7 +10759,7 @@
         <v>44034</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>44047</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         <v>44050</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>44050</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>44062</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>44062</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44062</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44064</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44066</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44075</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44075</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44076</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44076</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>44102</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>44103</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>44105</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>44105</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>44105</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44106</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>44106</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>44108</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>44108</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44115</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44115</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44115</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44115</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44116</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44124</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44124</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44124</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>44124</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44124</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>44125</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>44126</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>44126</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44126</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>44126</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>44126</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44136</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>44141</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44147</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         <v>44148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>44148</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44159</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44161</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44164</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>44164</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>44164</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44165</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44166</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44179</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>44187</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44202</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44212</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>44230</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>44230</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>44234</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         <v>44236</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>44260</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>44260</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>44261</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14391,7 +14391,7 @@
         <v>44261</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>44284</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>44291</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         <v>44298</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>44298</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>44302</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>44302</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>44302</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
         <v>44305</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14924,7 +14924,7 @@
         <v>44305</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         <v>44306</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15043,7 +15043,7 @@
         <v>44307</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>44316</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>44316</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15219,7 +15219,7 @@
         <v>44319</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15281,7 +15281,7 @@
         <v>44321</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44321</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>44321</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44333</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>44342</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44342</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15648,7 +15648,7 @@
         <v>44354</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44354</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44355</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44355</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44357</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>44390</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16010,7 +16010,7 @@
         <v>44390</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>44403</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>44410</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44410</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44410</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44410</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44414</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44414</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44414</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44414</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44414</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44417</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44417</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44420</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>44420</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44424</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44426</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>44427</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>44431</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44431</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>44432</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>44434</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44434</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>44440</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17393,7 +17393,7 @@
         <v>44442</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44442</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17517,7 +17517,7 @@
         <v>44442</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44442</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44449</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44449</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>44453</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17822,7 +17822,7 @@
         <v>44455</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>44461</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17941,7 +17941,7 @@
         <v>44462</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18003,7 +18003,7 @@
         <v>44466</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44469</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44473</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44474</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44475</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>44475</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>44475</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>44476</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>44477</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>44477</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18608,7 +18608,7 @@
         <v>44482</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18670,7 +18670,7 @@
         <v>44482</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18732,7 +18732,7 @@
         <v>44482</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>44494</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18856,7 +18856,7 @@
         <v>44496</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
         <v>44496</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18970,7 +18970,7 @@
         <v>44496</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>44496</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19084,7 +19084,7 @@
         <v>44496</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>44496</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>44496</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>44503</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19312,7 +19312,7 @@
         <v>44508</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19374,7 +19374,7 @@
         <v>44508</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44515</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44525</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44530</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>44531</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44531</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44537</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>44539</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44563</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44563</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44563</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44566</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20093,7 +20093,7 @@
         <v>44566</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         <v>44568</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20212,7 +20212,7 @@
         <v>44571</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20269,7 +20269,7 @@
         <v>44574</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20326,7 +20326,7 @@
         <v>44581</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>44604</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>44608</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>44617</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>44623</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>44630</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>44630</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>44662</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>44666</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>44684</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20906,7 +20906,7 @@
         <v>44686</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20963,7 +20963,7 @@
         <v>44700</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21020,7 +21020,7 @@
         <v>44706</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21077,7 +21077,7 @@
         <v>44713</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21134,7 +21134,7 @@
         <v>44714</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21191,7 +21191,7 @@
         <v>44718</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21248,7 +21248,7 @@
         <v>44726</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21305,7 +21305,7 @@
         <v>44727</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>44733</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         <v>44735</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21486,7 +21486,7 @@
         <v>44774</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>44776</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>44776</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>44776</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>44776</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21791,7 +21791,7 @@
         <v>44776</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21853,7 +21853,7 @@
         <v>44776</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44776</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21977,7 +21977,7 @@
         <v>44778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>44778</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44781</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>44782</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>44787</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>44787</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>44787</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>44787</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>44790</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44799</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44811</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>44811</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44813</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22738,7 +22738,7 @@
         <v>44813</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44813</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22862,7 +22862,7 @@
         <v>44813</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44820</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>44824</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23048,7 +23048,7 @@
         <v>44826</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23105,7 +23105,7 @@
         <v>44827</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23162,7 +23162,7 @@
         <v>44831</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23224,7 +23224,7 @@
         <v>44831</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23286,7 +23286,7 @@
         <v>44832</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23343,7 +23343,7 @@
         <v>44840</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>44840</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23467,7 +23467,7 @@
         <v>44840</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23529,7 +23529,7 @@
         <v>44840</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>44842</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>44845</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>44845</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23757,7 +23757,7 @@
         <v>44855</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>44855</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>44859</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>44861</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>44861</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44872</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>44873</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24181,7 +24181,7 @@
         <v>44883</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>44886</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>44886</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>44887</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>44888</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
         <v>44888</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24533,7 +24533,7 @@
         <v>44889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24590,7 +24590,7 @@
         <v>44890</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24652,7 +24652,7 @@
         <v>44890</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>44893</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>44895</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>44896</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>44896</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>44897</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25009,7 +25009,7 @@
         <v>44902</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25071,7 +25071,7 @@
         <v>44903</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25133,7 +25133,7 @@
         <v>44909</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25190,7 +25190,7 @@
         <v>44914</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>44914</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25304,7 +25304,7 @@
         <v>44914</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25361,7 +25361,7 @@
         <v>44928</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>44937</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>44950</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>44966</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>44971</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>44977</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>44981</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>44995</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>45006</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>45006</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>45012</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25993,7 +25993,7 @@
         <v>45018</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>45019</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>45021</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45030</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45034</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26283,7 +26283,7 @@
         <v>45035</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26340,7 +26340,7 @@
         <v>45037</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         <v>45040</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26454,7 +26454,7 @@
         <v>45040</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>45041</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>45041</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>45058</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26682,7 +26682,7 @@
         <v>45062</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26739,7 +26739,7 @@
         <v>45063</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26801,7 +26801,7 @@
         <v>45063</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26863,7 +26863,7 @@
         <v>45063</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26925,7 +26925,7 @@
         <v>45063</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26987,7 +26987,7 @@
         <v>45064</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>45064</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>45064</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45070</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         <v>45072</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27297,7 +27297,7 @@
         <v>45077</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27354,7 +27354,7 @@
         <v>45077</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27411,7 +27411,7 @@
         <v>45079</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27468,7 +27468,7 @@
         <v>45082</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27525,7 +27525,7 @@
         <v>45089</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27582,7 +27582,7 @@
         <v>45092</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>45102</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>45103</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45103</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45106</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>45107</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27939,7 +27939,7 @@
         <v>45107</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27996,7 +27996,7 @@
         <v>45109</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         <v>45109</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28110,7 +28110,7 @@
         <v>45110</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28172,7 +28172,7 @@
         <v>45110</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28234,7 +28234,7 @@
         <v>45111</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28291,7 +28291,7 @@
         <v>45113</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28348,7 +28348,7 @@
         <v>45114</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28410,7 +28410,7 @@
         <v>45114</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28467,7 +28467,7 @@
         <v>45124</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28524,7 +28524,7 @@
         <v>45125</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28581,7 +28581,7 @@
         <v>45131</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28638,7 +28638,7 @@
         <v>45140</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28695,7 +28695,7 @@
         <v>45147</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28752,7 +28752,7 @@
         <v>45149</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28809,7 +28809,7 @@
         <v>45153</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         <v>45154</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28923,7 +28923,7 @@
         <v>45188</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>

--- a/Översikt SMEDJEBACKEN.xlsx
+++ b/Översikt SMEDJEBACKEN.xlsx
@@ -572,7 +572,7 @@
         <v>43888</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>43440</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>44441</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         <v>44305</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44859</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>43893</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>43964</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44091</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>44321</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>44420</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>44909</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>45018</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>45064</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>45127</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43707</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>43766</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43780</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>44426</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44432</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44776</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>44776</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>44826</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>45015</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>45064</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43322</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43322</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43339</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43385</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43417</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43417</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43417</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43417</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43419</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43438</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43438</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43446</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>43451</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>43454</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>43483</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>43489</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43497</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43506</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43506</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43506</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43509</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43515</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43536</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43552</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>43560</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>43565</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>43584</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>43593</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         <v>43595</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>43607</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>43616</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43616</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43616</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43616</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43629</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43630</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43643</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43652</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43678</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43684</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>43684</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>43689</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>43693</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43693</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43697</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43698</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43700</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43700</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43703</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43703</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43703</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43704</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43706</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43726</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43726</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43731</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43731</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43732</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>43739</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>43745</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>43745</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>43745</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43754</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>43754</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>43760</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>43760</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>43766</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7239,7 +7239,7 @@
         <v>43767</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
         <v>43773</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>43773</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>43775</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>43777</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>43779</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>43780</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>43795</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>43798</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>43811</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>43822</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>43822</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>43840</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>43840</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>43842</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>43843</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>43843</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>43845</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>43846</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>43850</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>43851</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>43853</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43854</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43864</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43866</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43872</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43882</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43885</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43886</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43887</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>43887</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>43887</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>43887</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>43888</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43896</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>43902</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>43915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>43915</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>43919</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         <v>43920</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>43921</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43921</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43927</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43927</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43929</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43941</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>43942</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9988,7 +9988,7 @@
         <v>43976</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10045,7 +10045,7 @@
         <v>43977</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>43979</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>43984</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43984</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>43986</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>43997</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>43997</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>44000</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>44007</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>44008</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>44015</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>44026</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10759,7 +10759,7 @@
         <v>44034</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>44047</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         <v>44050</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>44050</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>44062</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>44062</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44062</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44064</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44066</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44075</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44075</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44076</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44076</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>44102</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>44103</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>44105</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>44105</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>44105</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44106</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>44106</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>44108</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>44108</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44115</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44115</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44115</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44115</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44116</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44124</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44124</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44124</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>44124</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44124</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>44125</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>44126</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>44126</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44126</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>44126</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>44126</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44136</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>44141</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44147</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         <v>44148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>44148</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44159</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44161</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44164</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>44164</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>44164</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44165</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44166</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44179</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>44187</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44202</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44212</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>44230</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>44230</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>44234</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         <v>44236</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>44260</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>44260</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>44261</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14391,7 +14391,7 @@
         <v>44261</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>44284</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>44291</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         <v>44298</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>44298</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>44302</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>44302</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>44302</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
         <v>44305</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14924,7 +14924,7 @@
         <v>44305</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         <v>44306</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15043,7 +15043,7 @@
         <v>44307</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>44316</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>44316</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15219,7 +15219,7 @@
         <v>44319</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15281,7 +15281,7 @@
         <v>44321</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44321</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>44321</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44333</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>44342</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44342</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15648,7 +15648,7 @@
         <v>44354</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44354</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44355</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44355</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44357</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>44390</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16010,7 +16010,7 @@
         <v>44390</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>44403</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>44410</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44410</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44410</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44410</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44414</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44414</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44414</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44414</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44414</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44417</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44417</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44420</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>44420</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44424</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44426</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>44427</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>44431</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44431</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>44432</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>44434</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44434</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>44440</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17393,7 +17393,7 @@
         <v>44442</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44442</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17517,7 +17517,7 @@
         <v>44442</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44442</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44449</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44449</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>44453</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17822,7 +17822,7 @@
         <v>44455</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>44461</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17941,7 +17941,7 @@
         <v>44462</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18003,7 +18003,7 @@
         <v>44466</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44469</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44473</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44474</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44475</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>44475</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>44475</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>44476</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>44477</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>44477</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18608,7 +18608,7 @@
         <v>44482</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18670,7 +18670,7 @@
         <v>44482</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18732,7 +18732,7 @@
         <v>44482</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>44494</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18856,7 +18856,7 @@
         <v>44496</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
         <v>44496</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18970,7 +18970,7 @@
         <v>44496</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>44496</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19084,7 +19084,7 @@
         <v>44496</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>44496</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>44496</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>44503</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19312,7 +19312,7 @@
         <v>44508</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19374,7 +19374,7 @@
         <v>44508</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44515</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44525</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44530</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>44531</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44531</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44537</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>44539</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44563</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44563</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44563</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44566</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20093,7 +20093,7 @@
         <v>44566</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         <v>44568</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20212,7 +20212,7 @@
         <v>44571</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20269,7 +20269,7 @@
         <v>44574</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20326,7 +20326,7 @@
         <v>44581</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>44604</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>44608</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>44617</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>44623</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>44630</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>44630</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>44662</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>44666</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>44684</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20906,7 +20906,7 @@
         <v>44686</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20963,7 +20963,7 @@
         <v>44700</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21020,7 +21020,7 @@
         <v>44706</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21077,7 +21077,7 @@
         <v>44713</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21134,7 +21134,7 @@
         <v>44714</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21191,7 +21191,7 @@
         <v>44718</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21248,7 +21248,7 @@
         <v>44726</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21305,7 +21305,7 @@
         <v>44727</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>44733</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         <v>44735</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21486,7 +21486,7 @@
         <v>44774</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>44776</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>44776</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>44776</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>44776</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21791,7 +21791,7 @@
         <v>44776</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21853,7 +21853,7 @@
         <v>44776</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44776</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21977,7 +21977,7 @@
         <v>44778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>44778</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44781</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>44782</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>44787</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>44787</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>44787</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>44787</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>44790</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44799</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44811</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>44811</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44813</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22738,7 +22738,7 @@
         <v>44813</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44813</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22862,7 +22862,7 @@
         <v>44813</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44820</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>44824</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23048,7 +23048,7 @@
         <v>44826</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23105,7 +23105,7 @@
         <v>44827</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23162,7 +23162,7 @@
         <v>44831</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23224,7 +23224,7 @@
         <v>44831</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23286,7 +23286,7 @@
         <v>44832</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23343,7 +23343,7 @@
         <v>44840</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>44840</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23467,7 +23467,7 @@
         <v>44840</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23529,7 +23529,7 @@
         <v>44840</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>44842</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>44845</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>44845</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23757,7 +23757,7 @@
         <v>44855</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>44855</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>44859</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>44861</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>44861</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44872</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>44873</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24181,7 +24181,7 @@
         <v>44883</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>44886</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>44886</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>44887</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>44888</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
         <v>44888</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24533,7 +24533,7 @@
         <v>44889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24590,7 +24590,7 @@
         <v>44890</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24652,7 +24652,7 @@
         <v>44890</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>44893</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>44895</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>44896</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>44896</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>44897</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25009,7 +25009,7 @@
         <v>44902</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25071,7 +25071,7 @@
         <v>44903</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25133,7 +25133,7 @@
         <v>44909</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25190,7 +25190,7 @@
         <v>44914</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>44914</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25304,7 +25304,7 @@
         <v>44914</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25361,7 +25361,7 @@
         <v>44928</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>44937</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>44950</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>44966</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>44971</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>44977</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>44981</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>44995</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>45006</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>45006</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>45012</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25993,7 +25993,7 @@
         <v>45018</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>45019</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>45021</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45030</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45034</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26283,7 +26283,7 @@
         <v>45035</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26340,7 +26340,7 @@
         <v>45037</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         <v>45040</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26454,7 +26454,7 @@
         <v>45040</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>45041</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>45041</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>45058</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26682,7 +26682,7 @@
         <v>45062</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26739,7 +26739,7 @@
         <v>45063</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26801,7 +26801,7 @@
         <v>45063</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26863,7 +26863,7 @@
         <v>45063</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26925,7 +26925,7 @@
         <v>45063</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26987,7 +26987,7 @@
         <v>45064</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>45064</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>45064</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45070</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         <v>45072</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27297,7 +27297,7 @@
         <v>45077</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27354,7 +27354,7 @@
         <v>45077</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27411,7 +27411,7 @@
         <v>45079</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27468,7 +27468,7 @@
         <v>45082</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27525,7 +27525,7 @@
         <v>45089</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27582,7 +27582,7 @@
         <v>45092</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>45102</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>45103</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45103</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45106</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>45107</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27939,7 +27939,7 @@
         <v>45107</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27996,7 +27996,7 @@
         <v>45109</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         <v>45109</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28110,7 +28110,7 @@
         <v>45110</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28172,7 +28172,7 @@
         <v>45110</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28234,7 +28234,7 @@
         <v>45111</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28291,7 +28291,7 @@
         <v>45113</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28348,7 +28348,7 @@
         <v>45114</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28410,7 +28410,7 @@
         <v>45114</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28467,7 +28467,7 @@
         <v>45124</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28524,7 +28524,7 @@
         <v>45125</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28581,7 +28581,7 @@
         <v>45131</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28638,7 +28638,7 @@
         <v>45140</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28695,7 +28695,7 @@
         <v>45147</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28752,7 +28752,7 @@
         <v>45149</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28809,7 +28809,7 @@
         <v>45153</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         <v>45154</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28923,7 +28923,7 @@
         <v>45188</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>

--- a/Översikt SMEDJEBACKEN.xlsx
+++ b/Översikt SMEDJEBACKEN.xlsx
@@ -572,7 +572,7 @@
         <v>43888</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>43440</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>44441</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         <v>44305</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44859</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>43893</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>43964</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44091</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>44321</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>44420</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>44909</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>45018</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>45064</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>45127</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43707</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>43766</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43780</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>44426</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44432</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44776</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>44776</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>44826</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>45015</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>45064</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43322</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43322</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43339</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43385</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43417</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43417</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43417</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43417</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43419</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43438</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43438</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43446</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>43451</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>43454</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>43483</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>43489</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43497</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43506</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43506</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43506</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43509</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43515</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43536</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43552</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>43560</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>43565</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>43584</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>43593</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         <v>43595</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>43607</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>43616</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43616</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43616</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43616</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43629</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43630</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43643</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43652</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43678</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43684</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>43684</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>43689</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>43693</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43693</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43697</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43698</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43700</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43700</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43703</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43703</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43703</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43704</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43706</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43726</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43726</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43731</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43731</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43732</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>43739</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>43745</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>43745</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>43745</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43754</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>43754</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>43760</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>43760</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>43766</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7239,7 +7239,7 @@
         <v>43767</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
         <v>43773</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>43773</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>43775</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>43777</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>43779</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>43780</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>43795</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>43798</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>43811</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>43822</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>43822</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>43840</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>43840</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>43842</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>43843</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>43843</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>43845</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>43846</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>43850</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>43851</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>43853</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43854</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43864</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43866</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43872</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43882</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43885</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43886</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43887</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>43887</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>43887</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>43887</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>43888</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43896</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>43902</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>43915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>43915</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>43919</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         <v>43920</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>43921</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43921</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43927</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43927</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43929</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43941</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>43942</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9988,7 +9988,7 @@
         <v>43976</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10045,7 +10045,7 @@
         <v>43977</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>43979</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>43984</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43984</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>43986</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>43997</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>43997</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>44000</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>44007</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>44008</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>44015</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>44026</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10759,7 +10759,7 @@
         <v>44034</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>44047</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         <v>44050</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>44050</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>44062</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>44062</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44062</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44064</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44066</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44075</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44075</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44076</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44076</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>44102</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>44103</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>44105</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>44105</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>44105</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44106</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>44106</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>44108</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>44108</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44115</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44115</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44115</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44115</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44116</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44124</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44124</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44124</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>44124</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44124</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>44125</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>44126</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>44126</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44126</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>44126</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>44126</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44136</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>44141</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44147</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         <v>44148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>44148</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44159</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44161</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44164</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>44164</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>44164</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44165</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44166</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44179</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>44187</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44202</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44212</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>44230</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>44230</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>44234</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         <v>44236</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>44260</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>44260</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>44261</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14391,7 +14391,7 @@
         <v>44261</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>44284</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>44291</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         <v>44298</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>44298</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>44302</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>44302</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>44302</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
         <v>44305</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14924,7 +14924,7 @@
         <v>44305</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         <v>44306</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15043,7 +15043,7 @@
         <v>44307</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>44316</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>44316</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15219,7 +15219,7 @@
         <v>44319</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15281,7 +15281,7 @@
         <v>44321</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44321</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>44321</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44333</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>44342</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44342</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15648,7 +15648,7 @@
         <v>44354</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44354</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44355</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44355</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44357</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>44390</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16010,7 +16010,7 @@
         <v>44390</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>44403</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>44410</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44410</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44410</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44410</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44414</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44414</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44414</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44414</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44414</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44417</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44417</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44420</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>44420</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44424</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44426</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>44427</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>44431</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44431</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>44432</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>44434</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44434</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>44440</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17393,7 +17393,7 @@
         <v>44442</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44442</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17517,7 +17517,7 @@
         <v>44442</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44442</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44449</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44449</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>44453</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17822,7 +17822,7 @@
         <v>44455</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>44461</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17941,7 +17941,7 @@
         <v>44462</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18003,7 +18003,7 @@
         <v>44466</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44469</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44473</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44474</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44475</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>44475</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>44475</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>44476</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>44477</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>44477</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18608,7 +18608,7 @@
         <v>44482</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18670,7 +18670,7 @@
         <v>44482</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18732,7 +18732,7 @@
         <v>44482</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>44494</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18856,7 +18856,7 @@
         <v>44496</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
         <v>44496</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18970,7 +18970,7 @@
         <v>44496</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>44496</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19084,7 +19084,7 @@
         <v>44496</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>44496</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>44496</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>44503</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19312,7 +19312,7 @@
         <v>44508</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19374,7 +19374,7 @@
         <v>44508</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44515</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44525</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44530</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>44531</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44531</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44537</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>44539</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44563</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44563</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44563</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44566</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20093,7 +20093,7 @@
         <v>44566</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         <v>44568</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20212,7 +20212,7 @@
         <v>44571</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20269,7 +20269,7 @@
         <v>44574</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20326,7 +20326,7 @@
         <v>44581</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>44604</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>44608</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>44617</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>44623</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>44630</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>44630</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>44662</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>44666</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>44684</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20906,7 +20906,7 @@
         <v>44686</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20963,7 +20963,7 @@
         <v>44700</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21020,7 +21020,7 @@
         <v>44706</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21077,7 +21077,7 @@
         <v>44713</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21134,7 +21134,7 @@
         <v>44714</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21191,7 +21191,7 @@
         <v>44718</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21248,7 +21248,7 @@
         <v>44726</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21305,7 +21305,7 @@
         <v>44727</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>44733</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         <v>44735</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21486,7 +21486,7 @@
         <v>44774</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>44776</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>44776</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>44776</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>44776</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21791,7 +21791,7 @@
         <v>44776</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21853,7 +21853,7 @@
         <v>44776</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44776</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21977,7 +21977,7 @@
         <v>44778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>44778</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44781</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>44782</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>44787</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>44787</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>44787</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>44787</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>44790</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44799</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44811</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>44811</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44813</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22738,7 +22738,7 @@
         <v>44813</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44813</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22862,7 +22862,7 @@
         <v>44813</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44820</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>44824</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23048,7 +23048,7 @@
         <v>44826</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23105,7 +23105,7 @@
         <v>44827</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23162,7 +23162,7 @@
         <v>44831</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23224,7 +23224,7 @@
         <v>44831</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23286,7 +23286,7 @@
         <v>44832</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23343,7 +23343,7 @@
         <v>44840</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>44840</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23467,7 +23467,7 @@
         <v>44840</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23529,7 +23529,7 @@
         <v>44840</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>44842</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>44845</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>44845</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23757,7 +23757,7 @@
         <v>44855</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>44855</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>44859</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>44861</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>44861</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44872</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>44873</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24181,7 +24181,7 @@
         <v>44883</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>44886</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>44886</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>44887</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>44888</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
         <v>44888</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24533,7 +24533,7 @@
         <v>44889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24590,7 +24590,7 @@
         <v>44890</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24652,7 +24652,7 @@
         <v>44890</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>44893</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>44895</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>44896</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>44896</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>44897</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25009,7 +25009,7 @@
         <v>44902</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25071,7 +25071,7 @@
         <v>44903</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25133,7 +25133,7 @@
         <v>44909</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25190,7 +25190,7 @@
         <v>44914</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>44914</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25304,7 +25304,7 @@
         <v>44914</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25361,7 +25361,7 @@
         <v>44928</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>44937</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>44950</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>44966</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>44971</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>44977</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>44981</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>44995</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>45006</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>45006</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>45012</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25993,7 +25993,7 @@
         <v>45018</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>45019</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>45021</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45030</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45034</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26283,7 +26283,7 @@
         <v>45035</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26340,7 +26340,7 @@
         <v>45037</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         <v>45040</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26454,7 +26454,7 @@
         <v>45040</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>45041</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>45041</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>45058</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26682,7 +26682,7 @@
         <v>45062</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26739,7 +26739,7 @@
         <v>45063</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26801,7 +26801,7 @@
         <v>45063</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26863,7 +26863,7 @@
         <v>45063</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26925,7 +26925,7 @@
         <v>45063</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26987,7 +26987,7 @@
         <v>45064</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>45064</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>45064</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45070</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         <v>45072</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27297,7 +27297,7 @@
         <v>45077</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27354,7 +27354,7 @@
         <v>45077</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27411,7 +27411,7 @@
         <v>45079</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27468,7 +27468,7 @@
         <v>45082</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27525,7 +27525,7 @@
         <v>45089</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27582,7 +27582,7 @@
         <v>45092</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>45102</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>45103</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45103</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45106</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>45107</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27939,7 +27939,7 @@
         <v>45107</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27996,7 +27996,7 @@
         <v>45109</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         <v>45109</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28110,7 +28110,7 @@
         <v>45110</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28172,7 +28172,7 @@
         <v>45110</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28234,7 +28234,7 @@
         <v>45111</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28291,7 +28291,7 @@
         <v>45113</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28348,7 +28348,7 @@
         <v>45114</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28410,7 +28410,7 @@
         <v>45114</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28467,7 +28467,7 @@
         <v>45124</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28524,7 +28524,7 @@
         <v>45125</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28581,7 +28581,7 @@
         <v>45131</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28638,7 +28638,7 @@
         <v>45140</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28695,7 +28695,7 @@
         <v>45147</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28752,7 +28752,7 @@
         <v>45149</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28809,7 +28809,7 @@
         <v>45153</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         <v>45154</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28923,7 +28923,7 @@
         <v>45188</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>

--- a/Översikt SMEDJEBACKEN.xlsx
+++ b/Översikt SMEDJEBACKEN.xlsx
@@ -572,7 +572,7 @@
         <v>43888</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>43440</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>44441</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         <v>44305</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44859</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>43893</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>43964</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44091</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>44321</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>44420</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>44909</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>45018</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>45064</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>45127</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43707</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>43766</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43780</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>44426</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44432</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44776</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>44776</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>44826</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>45015</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>45064</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43322</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43322</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43339</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43385</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43417</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43417</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43417</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43417</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43419</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43438</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43438</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43446</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>43451</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>43454</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>43483</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>43489</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43497</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43506</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43506</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43506</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43509</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43515</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43536</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43552</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>43560</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>43565</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>43584</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>43593</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         <v>43595</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>43607</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>43616</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43616</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43616</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43616</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43629</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43630</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43643</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43652</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43678</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43684</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>43684</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>43689</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>43693</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43693</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43697</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43698</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43700</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43700</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43703</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43703</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43703</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43704</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43706</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43726</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43726</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43731</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43731</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43732</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>43739</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>43745</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>43745</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>43745</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43754</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>43754</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>43760</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>43760</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>43766</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7239,7 +7239,7 @@
         <v>43767</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
         <v>43773</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>43773</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>43775</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>43777</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>43779</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>43780</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>43795</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>43798</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>43811</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>43822</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>43822</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>43840</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>43840</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>43842</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>43843</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>43843</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>43845</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>43846</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>43850</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>43851</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>43853</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43854</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43864</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43866</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43872</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43882</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43885</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43886</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43887</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>43887</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>43887</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>43887</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>43888</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43896</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>43902</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>43915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>43915</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>43919</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         <v>43920</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>43921</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43921</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43927</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43927</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43929</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43941</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>43942</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9988,7 +9988,7 @@
         <v>43976</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10045,7 +10045,7 @@
         <v>43977</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>43979</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>43984</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43984</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>43986</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>43997</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>43997</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>44000</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>44007</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>44008</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>44015</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>44026</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10759,7 +10759,7 @@
         <v>44034</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>44047</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         <v>44050</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>44050</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>44062</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>44062</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44062</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44064</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44066</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44075</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44075</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44076</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44076</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>44102</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>44103</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>44105</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>44105</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>44105</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44106</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>44106</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>44108</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>44108</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44115</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44115</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44115</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44115</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44116</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44124</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44124</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44124</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>44124</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44124</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>44125</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>44126</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>44126</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44126</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>44126</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>44126</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44136</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>44141</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44147</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         <v>44148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>44148</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44159</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44161</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44164</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>44164</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>44164</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44165</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44166</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44179</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>44187</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44202</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44212</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>44230</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>44230</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>44234</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         <v>44236</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>44260</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>44260</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>44261</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14391,7 +14391,7 @@
         <v>44261</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>44284</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>44291</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         <v>44298</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>44298</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>44302</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>44302</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>44302</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
         <v>44305</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14924,7 +14924,7 @@
         <v>44305</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         <v>44306</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15043,7 +15043,7 @@
         <v>44307</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>44316</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>44316</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15219,7 +15219,7 @@
         <v>44319</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15281,7 +15281,7 @@
         <v>44321</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44321</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>44321</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44333</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>44342</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44342</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15648,7 +15648,7 @@
         <v>44354</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44354</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44355</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44355</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44357</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>44390</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16010,7 +16010,7 @@
         <v>44390</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>44403</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>44410</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44410</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44410</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44410</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44414</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44414</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44414</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44414</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44414</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44417</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44417</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44420</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>44420</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44424</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44426</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>44427</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>44431</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44431</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>44432</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>44434</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44434</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>44440</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17393,7 +17393,7 @@
         <v>44442</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44442</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17517,7 +17517,7 @@
         <v>44442</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44442</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44449</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44449</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>44453</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17822,7 +17822,7 @@
         <v>44455</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>44461</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17941,7 +17941,7 @@
         <v>44462</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18003,7 +18003,7 @@
         <v>44466</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44469</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44473</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44474</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44475</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>44475</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>44475</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>44476</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>44477</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>44477</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18608,7 +18608,7 @@
         <v>44482</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18670,7 +18670,7 @@
         <v>44482</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18732,7 +18732,7 @@
         <v>44482</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>44494</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18856,7 +18856,7 @@
         <v>44496</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
         <v>44496</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18970,7 +18970,7 @@
         <v>44496</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>44496</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19084,7 +19084,7 @@
         <v>44496</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>44496</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>44496</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>44503</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19312,7 +19312,7 @@
         <v>44508</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19374,7 +19374,7 @@
         <v>44508</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44515</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44525</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44530</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>44531</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44531</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44537</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>44539</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44563</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44563</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44563</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44566</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20093,7 +20093,7 @@
         <v>44566</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         <v>44568</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20212,7 +20212,7 @@
         <v>44571</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20269,7 +20269,7 @@
         <v>44574</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20326,7 +20326,7 @@
         <v>44581</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>44604</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>44608</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>44617</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>44623</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>44630</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>44630</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>44662</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>44666</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>44684</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20906,7 +20906,7 @@
         <v>44686</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20963,7 +20963,7 @@
         <v>44700</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21020,7 +21020,7 @@
         <v>44706</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21077,7 +21077,7 @@
         <v>44713</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21134,7 +21134,7 @@
         <v>44714</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21191,7 +21191,7 @@
         <v>44718</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21248,7 +21248,7 @@
         <v>44726</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21305,7 +21305,7 @@
         <v>44727</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>44733</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         <v>44735</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21486,7 +21486,7 @@
         <v>44774</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>44776</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>44776</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>44776</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>44776</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21791,7 +21791,7 @@
         <v>44776</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21853,7 +21853,7 @@
         <v>44776</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44776</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21977,7 +21977,7 @@
         <v>44778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>44778</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44781</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>44782</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>44787</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>44787</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>44787</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>44787</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>44790</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44799</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44811</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>44811</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44813</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22738,7 +22738,7 @@
         <v>44813</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44813</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22862,7 +22862,7 @@
         <v>44813</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44820</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>44824</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23048,7 +23048,7 @@
         <v>44826</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23105,7 +23105,7 @@
         <v>44827</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23162,7 +23162,7 @@
         <v>44831</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23224,7 +23224,7 @@
         <v>44831</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23286,7 +23286,7 @@
         <v>44832</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23343,7 +23343,7 @@
         <v>44840</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>44840</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23467,7 +23467,7 @@
         <v>44840</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23529,7 +23529,7 @@
         <v>44840</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>44842</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>44845</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>44845</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23757,7 +23757,7 @@
         <v>44855</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>44855</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>44859</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>44861</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>44861</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44872</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>44873</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24181,7 +24181,7 @@
         <v>44883</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>44886</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>44886</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>44887</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>44888</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
         <v>44888</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24533,7 +24533,7 @@
         <v>44889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24590,7 +24590,7 @@
         <v>44890</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24652,7 +24652,7 @@
         <v>44890</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>44893</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>44895</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>44896</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>44896</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>44897</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25009,7 +25009,7 @@
         <v>44902</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25071,7 +25071,7 @@
         <v>44903</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25133,7 +25133,7 @@
         <v>44909</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25190,7 +25190,7 @@
         <v>44914</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>44914</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25304,7 +25304,7 @@
         <v>44914</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25361,7 +25361,7 @@
         <v>44928</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>44937</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>44950</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>44966</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>44971</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>44977</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>44981</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>44995</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>45006</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>45006</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>45012</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25993,7 +25993,7 @@
         <v>45018</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>45019</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>45021</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45030</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45034</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26283,7 +26283,7 @@
         <v>45035</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26340,7 +26340,7 @@
         <v>45037</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         <v>45040</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26454,7 +26454,7 @@
         <v>45040</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>45041</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>45041</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>45058</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26682,7 +26682,7 @@
         <v>45062</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26739,7 +26739,7 @@
         <v>45063</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26801,7 +26801,7 @@
         <v>45063</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26863,7 +26863,7 @@
         <v>45063</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26925,7 +26925,7 @@
         <v>45063</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26987,7 +26987,7 @@
         <v>45064</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>45064</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>45064</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45070</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         <v>45072</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27297,7 +27297,7 @@
         <v>45077</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27354,7 +27354,7 @@
         <v>45077</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27411,7 +27411,7 @@
         <v>45079</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27468,7 +27468,7 @@
         <v>45082</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27525,7 +27525,7 @@
         <v>45089</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27582,7 +27582,7 @@
         <v>45092</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>45102</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>45103</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45103</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45106</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>45107</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27939,7 +27939,7 @@
         <v>45107</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27996,7 +27996,7 @@
         <v>45109</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         <v>45109</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28110,7 +28110,7 @@
         <v>45110</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28172,7 +28172,7 @@
         <v>45110</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28234,7 +28234,7 @@
         <v>45111</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28291,7 +28291,7 @@
         <v>45113</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28348,7 +28348,7 @@
         <v>45114</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28410,7 +28410,7 @@
         <v>45114</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28467,7 +28467,7 @@
         <v>45124</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28524,7 +28524,7 @@
         <v>45125</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28581,7 +28581,7 @@
         <v>45131</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28638,7 +28638,7 @@
         <v>45140</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28695,7 +28695,7 @@
         <v>45147</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28752,7 +28752,7 @@
         <v>45149</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28809,7 +28809,7 @@
         <v>45153</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         <v>45154</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28923,7 +28923,7 @@
         <v>45188</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>

--- a/Översikt SMEDJEBACKEN.xlsx
+++ b/Översikt SMEDJEBACKEN.xlsx
@@ -572,7 +572,7 @@
         <v>43888</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>43440</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>44441</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         <v>44305</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44859</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>43893</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>43964</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44091</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>44321</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>44420</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>44909</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>45018</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>45064</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>45127</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43707</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>43766</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43780</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>44426</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44432</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44776</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>44776</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>44826</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>45015</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>45064</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43322</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43322</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43339</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43385</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43417</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43417</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43417</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43417</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43419</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43438</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43438</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43446</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>43451</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>43454</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>43483</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>43489</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43497</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43506</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43506</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43506</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43509</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43515</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43536</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43552</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>43560</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>43565</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>43584</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>43593</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         <v>43595</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>43607</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>43616</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43616</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43616</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43616</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43629</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43630</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43643</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43652</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43678</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43684</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>43684</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>43689</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>43693</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43693</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43697</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43698</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43700</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43700</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43703</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43703</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43703</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43704</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43706</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43726</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43726</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43731</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43731</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43732</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>43739</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>43745</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>43745</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>43745</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43754</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>43754</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>43760</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>43760</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>43766</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7239,7 +7239,7 @@
         <v>43767</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
         <v>43773</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>43773</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>43775</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>43777</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>43779</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>43780</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>43795</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>43798</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>43811</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>43822</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>43822</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>43840</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>43840</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>43842</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>43843</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>43843</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>43845</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>43846</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>43850</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>43851</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>43853</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43854</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43864</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43866</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43872</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43882</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43885</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43886</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43887</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>43887</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>43887</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>43887</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>43888</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43896</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>43902</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>43915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>43915</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>43919</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         <v>43920</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>43921</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43921</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43927</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43927</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43929</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43941</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>43942</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9988,7 +9988,7 @@
         <v>43976</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10045,7 +10045,7 @@
         <v>43977</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>43979</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>43984</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43984</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>43986</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>43997</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>43997</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>44000</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>44007</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>44008</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>44015</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>44026</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10759,7 +10759,7 @@
         <v>44034</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>44047</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         <v>44050</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>44050</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>44062</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>44062</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44062</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44064</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44066</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44075</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44075</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44076</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44076</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>44102</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>44103</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>44105</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>44105</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>44105</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44106</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>44106</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>44108</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>44108</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44115</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44115</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44115</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44115</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44116</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44124</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44124</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44124</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>44124</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44124</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>44125</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>44126</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>44126</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44126</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>44126</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>44126</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44136</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>44141</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44147</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         <v>44148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>44148</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44159</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44161</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44164</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>44164</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>44164</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44165</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44166</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44179</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>44187</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44202</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44212</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>44230</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>44230</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>44234</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         <v>44236</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>44260</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>44260</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>44261</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14391,7 +14391,7 @@
         <v>44261</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>44284</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>44291</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         <v>44298</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>44298</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>44302</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>44302</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>44302</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
         <v>44305</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14924,7 +14924,7 @@
         <v>44305</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         <v>44306</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15043,7 +15043,7 @@
         <v>44307</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>44316</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>44316</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15219,7 +15219,7 @@
         <v>44319</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15281,7 +15281,7 @@
         <v>44321</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44321</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>44321</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44333</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>44342</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44342</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15648,7 +15648,7 @@
         <v>44354</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44354</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44355</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44355</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44357</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>44390</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16010,7 +16010,7 @@
         <v>44390</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>44403</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>44410</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44410</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44410</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44410</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44414</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44414</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44414</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44414</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44414</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44417</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44417</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44420</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>44420</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44424</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44426</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>44427</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>44431</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44431</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>44432</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>44434</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44434</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>44440</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17393,7 +17393,7 @@
         <v>44442</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44442</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17517,7 +17517,7 @@
         <v>44442</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44442</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44449</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44449</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>44453</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17822,7 +17822,7 @@
         <v>44455</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>44461</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17941,7 +17941,7 @@
         <v>44462</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18003,7 +18003,7 @@
         <v>44466</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44469</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44473</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44474</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44475</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>44475</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>44475</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>44476</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>44477</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>44477</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18608,7 +18608,7 @@
         <v>44482</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18670,7 +18670,7 @@
         <v>44482</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18732,7 +18732,7 @@
         <v>44482</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>44494</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18856,7 +18856,7 @@
         <v>44496</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
         <v>44496</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18970,7 +18970,7 @@
         <v>44496</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>44496</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19084,7 +19084,7 @@
         <v>44496</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>44496</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>44496</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>44503</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19312,7 +19312,7 @@
         <v>44508</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19374,7 +19374,7 @@
         <v>44508</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44515</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44525</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44530</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>44531</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44531</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44537</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>44539</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44563</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44563</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44563</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44566</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20093,7 +20093,7 @@
         <v>44566</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         <v>44568</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20212,7 +20212,7 @@
         <v>44571</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20269,7 +20269,7 @@
         <v>44574</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20326,7 +20326,7 @@
         <v>44581</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>44604</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>44608</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>44617</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>44623</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>44630</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>44630</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>44662</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>44666</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>44684</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20906,7 +20906,7 @@
         <v>44686</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20963,7 +20963,7 @@
         <v>44700</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21020,7 +21020,7 @@
         <v>44706</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21077,7 +21077,7 @@
         <v>44713</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21134,7 +21134,7 @@
         <v>44714</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21191,7 +21191,7 @@
         <v>44718</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21248,7 +21248,7 @@
         <v>44726</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21305,7 +21305,7 @@
         <v>44727</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>44733</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         <v>44735</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21486,7 +21486,7 @@
         <v>44774</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>44776</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>44776</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>44776</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>44776</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21791,7 +21791,7 @@
         <v>44776</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21853,7 +21853,7 @@
         <v>44776</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44776</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21977,7 +21977,7 @@
         <v>44778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>44778</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44781</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>44782</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>44787</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>44787</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>44787</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>44787</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>44790</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44799</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44811</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>44811</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44813</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22738,7 +22738,7 @@
         <v>44813</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44813</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22862,7 +22862,7 @@
         <v>44813</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44820</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>44824</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23048,7 +23048,7 @@
         <v>44826</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23105,7 +23105,7 @@
         <v>44827</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23162,7 +23162,7 @@
         <v>44831</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23224,7 +23224,7 @@
         <v>44831</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23286,7 +23286,7 @@
         <v>44832</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23343,7 +23343,7 @@
         <v>44840</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>44840</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23467,7 +23467,7 @@
         <v>44840</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23529,7 +23529,7 @@
         <v>44840</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>44842</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>44845</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>44845</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23757,7 +23757,7 @@
         <v>44855</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>44855</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>44859</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>44861</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>44861</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44872</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>44873</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24181,7 +24181,7 @@
         <v>44883</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>44886</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>44886</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>44887</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>44888</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
         <v>44888</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24533,7 +24533,7 @@
         <v>44889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24590,7 +24590,7 @@
         <v>44890</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24652,7 +24652,7 @@
         <v>44890</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>44893</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>44895</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>44896</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>44896</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>44897</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25009,7 +25009,7 @@
         <v>44902</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25071,7 +25071,7 @@
         <v>44903</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25133,7 +25133,7 @@
         <v>44909</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25190,7 +25190,7 @@
         <v>44914</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>44914</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25304,7 +25304,7 @@
         <v>44914</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25361,7 +25361,7 @@
         <v>44928</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>44937</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>44950</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>44966</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>44971</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>44977</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>44981</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>44995</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>45006</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>45006</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>45012</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25993,7 +25993,7 @@
         <v>45018</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>45019</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>45021</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45030</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45034</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26283,7 +26283,7 @@
         <v>45035</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26340,7 +26340,7 @@
         <v>45037</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         <v>45040</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26454,7 +26454,7 @@
         <v>45040</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>45041</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>45041</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>45058</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26682,7 +26682,7 @@
         <v>45062</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26739,7 +26739,7 @@
         <v>45063</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26801,7 +26801,7 @@
         <v>45063</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26863,7 +26863,7 @@
         <v>45063</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26925,7 +26925,7 @@
         <v>45063</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26987,7 +26987,7 @@
         <v>45064</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>45064</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>45064</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45070</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         <v>45072</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27297,7 +27297,7 @@
         <v>45077</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27354,7 +27354,7 @@
         <v>45077</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27411,7 +27411,7 @@
         <v>45079</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27468,7 +27468,7 @@
         <v>45082</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27525,7 +27525,7 @@
         <v>45089</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27582,7 +27582,7 @@
         <v>45092</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>45102</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>45103</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45103</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45106</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>45107</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27939,7 +27939,7 @@
         <v>45107</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27996,7 +27996,7 @@
         <v>45109</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         <v>45109</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28110,7 +28110,7 @@
         <v>45110</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28172,7 +28172,7 @@
         <v>45110</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28234,7 +28234,7 @@
         <v>45111</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28291,7 +28291,7 @@
         <v>45113</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28348,7 +28348,7 @@
         <v>45114</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28410,7 +28410,7 @@
         <v>45114</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28467,7 +28467,7 @@
         <v>45124</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28524,7 +28524,7 @@
         <v>45125</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28581,7 +28581,7 @@
         <v>45131</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28638,7 +28638,7 @@
         <v>45140</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28695,7 +28695,7 @@
         <v>45147</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28752,7 +28752,7 @@
         <v>45149</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28809,7 +28809,7 @@
         <v>45153</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         <v>45154</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28923,7 +28923,7 @@
         <v>45188</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
